--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -114,7 +114,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -546,6 +546,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,7 +558,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -621,6 +624,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>548835.01220042724</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>574803.82180182589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,7 +669,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -729,6 +735,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,7 +747,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -804,6 +813,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>540654.57034428499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>552598.59015013964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,7 +858,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -912,6 +924,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,7 +936,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -987,6 +1002,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-8180.4418561422499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22205.231651686248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,11 +1026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158065024"/>
-        <c:axId val="158066944"/>
+        <c:axId val="404515072"/>
+        <c:axId val="407177472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="158065024"/>
+        <c:axId val="404515072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,14 +1073,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158066944"/>
+        <c:crossAx val="407177472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158066944"/>
+        <c:axId val="407177472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,7 +1131,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158065024"/>
+        <c:crossAx val="404515072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1269,6 +1287,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1303,7 +1322,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1369,6 +1388,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25968.8096013986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,8 +1405,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254317312"/>
-        <c:axId val="254295040"/>
+        <c:axId val="92329088"/>
+        <c:axId val="486349056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1409,7 +1431,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1475,6 +1497,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,7 +1509,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1550,6 +1575,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,11 +1594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245379072"/>
-        <c:axId val="254293120"/>
+        <c:axId val="480137216"/>
+        <c:axId val="480139904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="245379072"/>
+        <c:axId val="480137216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,14 +1641,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254293120"/>
+        <c:crossAx val="480139904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254293120"/>
+        <c:axId val="480139904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,12 +1699,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245379072"/>
+        <c:crossAx val="480137216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254295040"/>
+        <c:axId val="486349056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,12 +1741,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254317312"/>
+        <c:crossAx val="92329088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="254317312"/>
+        <c:axId val="92329088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254295040"/>
+        <c:crossAx val="486349056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2136,14 +2164,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="10" customWidth="1"/>
     <col min="2" max="2" width="8" style="10" customWidth="1"/>
@@ -2175,7 +2203,7 @@
     <col min="32" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2245,7 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2237,7 +2265,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1">
       <c r="A3" s="11">
         <v>44377</v>
       </c>
@@ -2310,7 +2338,7 @@
         <v>-71470.226080923632</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="11">
         <v>44407</v>
       </c>
@@ -2389,7 +2417,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="11">
         <v>44439</v>
       </c>
@@ -2465,7 +2493,7 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="11">
         <v>44469</v>
       </c>
@@ -2515,7 +2543,7 @@
       <c r="AD6" s="19"/>
       <c r="AE6" s="16"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="11">
         <v>44498</v>
       </c>
@@ -2560,7 +2588,7 @@
       <c r="AA7" s="8"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="11">
         <v>44530</v>
       </c>
@@ -2601,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="11">
         <v>44561</v>
       </c>
@@ -2645,7 +2673,7 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1">
       <c r="A10" s="11">
         <v>44589</v>
       </c>
@@ -2689,7 +2717,7 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1">
       <c r="A11" s="11">
         <v>44620</v>
       </c>
@@ -2733,7 +2761,7 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1">
       <c r="A12" s="11">
         <v>44651</v>
       </c>
@@ -2775,7 +2803,7 @@
       </c>
       <c r="Y12" s="16"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1">
       <c r="A13" s="11">
         <v>44680</v>
       </c>
@@ -2817,7 +2845,7 @@
       </c>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1">
       <c r="A14" s="11">
         <v>44712</v>
       </c>
@@ -2858,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1">
       <c r="A15" s="11">
         <v>44742</v>
       </c>
@@ -2899,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1">
       <c r="A16" s="11">
         <v>44771</v>
       </c>
@@ -2940,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1">
       <c r="A17" s="11">
         <v>44804</v>
       </c>
@@ -2981,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1">
       <c r="A18" s="11">
         <v>44834</v>
       </c>
@@ -3022,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75">
       <c r="A19" s="11">
         <v>44865</v>
       </c>
@@ -3063,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75">
       <c r="A20" s="11">
         <v>44895</v>
       </c>
@@ -3104,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75">
       <c r="A21" s="11">
         <v>44925</v>
       </c>
@@ -3145,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75">
       <c r="A22" s="11">
         <v>44957</v>
       </c>
@@ -3186,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75">
       <c r="A23" s="11">
         <v>44985</v>
       </c>
@@ -3227,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.75">
       <c r="A24" s="11">
         <v>45016</v>
       </c>
@@ -3265,6 +3293,47 @@
         <v>0</v>
       </c>
       <c r="M24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75">
+      <c r="A25" s="11">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="12">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="13">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="13">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F25" s="14">
+        <v>34578.974762435661</v>
+      </c>
+      <c r="G25" s="14">
+        <v>735817.04344006942</v>
+      </c>
+      <c r="H25" s="14">
+        <v>552598.59015013964</v>
+      </c>
+      <c r="I25" s="14">
+        <v>574803.82180182589</v>
+      </c>
+      <c r="J25" s="14">
+        <v>552598.59015013964</v>
+      </c>
+      <c r="K25" s="14">
+        <v>-22205.231651686248</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -480,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -549,6 +545,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,7 +560,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -627,6 +629,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>574803.82180182589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>608395.92264148453</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>637390.84148665029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,7 +677,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -738,6 +746,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,7 +761,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -816,6 +830,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>552598.59015013964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>563380.39316840307</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>619761.83169761067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,7 +878,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -927,6 +947,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +962,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1005,6 +1031,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-22205.231651686248</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-45015.529473081464</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-17629.009789039614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,11 +1058,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404515072"/>
-        <c:axId val="407177472"/>
+        <c:axId val="77614464"/>
+        <c:axId val="77628544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="404515072"/>
+        <c:axId val="77614464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,14 +1105,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407177472"/>
+        <c:crossAx val="77628544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407177472"/>
+        <c:axId val="77628544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1163,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404515072"/>
+        <c:crossAx val="77614464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1322,7 +1354,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1391,6 +1423,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33592.100839658677</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,8 +1443,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92329088"/>
-        <c:axId val="486349056"/>
+        <c:axId val="489045376"/>
+        <c:axId val="489043072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1431,7 +1469,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1500,6 +1538,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,7 +1553,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1578,6 +1622,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,11 +1644,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480137216"/>
-        <c:axId val="480139904"/>
+        <c:axId val="77653120"/>
+        <c:axId val="77654656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480137216"/>
+        <c:axId val="77653120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,14 +1691,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480139904"/>
+        <c:crossAx val="77654656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480139904"/>
+        <c:axId val="77654656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,12 +1749,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480137216"/>
+        <c:crossAx val="77653120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486349056"/>
+        <c:axId val="489043072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,12 +1791,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92329088"/>
+        <c:crossAx val="489045376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="92329088"/>
+        <c:axId val="489045376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1805,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486349056"/>
+        <c:crossAx val="489043072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2164,7 +2214,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2304,28 +2354,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -3334,6 +3384,88 @@
         <v>0</v>
       </c>
       <c r="M25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75">
+      <c r="A26" s="11">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="12">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="13">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="13">
+        <v>33592.100839658677</v>
+      </c>
+      <c r="F26" s="14">
+        <v>46655.693756706351</v>
+      </c>
+      <c r="G26" s="14">
+        <v>782472.73719677574</v>
+      </c>
+      <c r="H26" s="14">
+        <v>563380.39316840307</v>
+      </c>
+      <c r="I26" s="14">
+        <v>608395.92264148453</v>
+      </c>
+      <c r="J26" s="14">
+        <v>563380.39316840307</v>
+      </c>
+      <c r="K26" s="14">
+        <v>-45015.529473081464</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75">
+      <c r="A27" s="11">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="12">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="13">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="13">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F27" s="14">
+        <v>38403.866262635274</v>
+      </c>
+      <c r="G27" s="14">
+        <v>820876.60345941107</v>
+      </c>
+      <c r="H27" s="14">
+        <v>619761.83169761067</v>
+      </c>
+      <c r="I27" s="14">
+        <v>637390.84148665029</v>
+      </c>
+      <c r="J27" s="14">
+        <v>619761.83169761067</v>
+      </c>
+      <c r="K27" s="14">
+        <v>-17629.009789039614</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -476,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -551,6 +555,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -560,7 +567,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -635,6 +642,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>637390.84148665029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>664460.27747876197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,7 +687,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -752,6 +762,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,7 +774,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -836,6 +849,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>619761.83169761067</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>651756.51282777358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,7 +894,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -953,6 +969,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +981,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1037,6 +1056,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-17629.009789039614</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12703.764650988393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,11 +1080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77614464"/>
-        <c:axId val="77628544"/>
+        <c:axId val="391545984"/>
+        <c:axId val="391547904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77614464"/>
+        <c:axId val="391545984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,14 +1127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77628544"/>
+        <c:crossAx val="391547904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77628544"/>
+        <c:axId val="391547904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1185,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77614464"/>
+        <c:crossAx val="391545984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,7 +1376,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1429,6 +1451,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,8 +1468,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489045376"/>
-        <c:axId val="489043072"/>
+        <c:axId val="396366208"/>
+        <c:axId val="393145344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1469,7 +1494,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1544,6 +1569,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,7 +1581,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1628,6 +1656,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1644,11 +1675,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77653120"/>
-        <c:axId val="77654656"/>
+        <c:axId val="393141632"/>
+        <c:axId val="393143808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77653120"/>
+        <c:axId val="393141632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,14 +1722,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77654656"/>
+        <c:crossAx val="393143808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77654656"/>
+        <c:axId val="393143808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,12 +1780,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77653120"/>
+        <c:crossAx val="393141632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489043072"/>
+        <c:axId val="393145344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,12 +1822,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489045376"/>
+        <c:crossAx val="396366208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489045376"/>
+        <c:axId val="396366208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,7 +1836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489043072"/>
+        <c:crossAx val="393145344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2214,7 +2245,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2354,28 +2385,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -3466,6 +3497,47 @@
         <v>0</v>
       </c>
       <c r="M27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="12.75">
+      <c r="A28" s="11">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="12">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="13">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="13">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F28" s="14">
+        <v>35570.876201449297</v>
+      </c>
+      <c r="G28" s="14">
+        <v>856447.47966086038</v>
+      </c>
+      <c r="H28" s="14">
+        <v>651756.51282777358</v>
+      </c>
+      <c r="I28" s="14">
+        <v>664460.27747876197</v>
+      </c>
+      <c r="J28" s="14">
+        <v>651756.51282777358</v>
+      </c>
+      <c r="K28" s="14">
+        <v>-12703.764650988393</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -480,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -558,6 +558,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +570,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -645,6 +648,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>664460.27747876197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>696265.27651067753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,7 +693,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -765,6 +771,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,7 +783,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -852,6 +861,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>651756.51282777358</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>643308.4880749624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,7 +906,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -972,6 +984,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +996,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1059,6 +1074,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-12703.764650988393</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-52956.788435715134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,11 +1098,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391545984"/>
-        <c:axId val="391547904"/>
+        <c:axId val="358337536"/>
+        <c:axId val="359269120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391545984"/>
+        <c:axId val="358337536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,14 +1145,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391547904"/>
+        <c:crossAx val="359269120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391547904"/>
+        <c:axId val="359269120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1203,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391545984"/>
+        <c:crossAx val="358337536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1376,7 +1394,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1454,6 +1472,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,8 +1489,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="396366208"/>
-        <c:axId val="393145344"/>
+        <c:axId val="359320960"/>
+        <c:axId val="359318656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1494,7 +1515,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1572,6 +1593,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,7 +1605,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1659,6 +1683,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,11 +1702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393141632"/>
-        <c:axId val="393143808"/>
+        <c:axId val="359310848"/>
+        <c:axId val="359312768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393141632"/>
+        <c:axId val="359310848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,14 +1749,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393143808"/>
+        <c:crossAx val="359312768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="393143808"/>
+        <c:axId val="359312768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,12 +1807,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393141632"/>
+        <c:crossAx val="359310848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393145344"/>
+        <c:axId val="359318656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,12 +1849,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396366208"/>
+        <c:crossAx val="359320960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="396366208"/>
+        <c:axId val="359320960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393145344"/>
+        <c:crossAx val="359318656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2245,7 +2272,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3541,6 +3568,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75">
+      <c r="A29" s="11">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="12">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="13">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="13">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F29" s="14">
+        <v>44544.817404276022</v>
+      </c>
+      <c r="G29" s="14">
+        <v>900992.29706513637</v>
+      </c>
+      <c r="H29" s="14">
+        <v>643308.4880749624</v>
+      </c>
+      <c r="I29" s="14">
+        <v>696265.27651067753</v>
+      </c>
+      <c r="J29" s="14">
+        <v>643308.4880749624</v>
+      </c>
+      <c r="K29" s="14">
+        <v>-52956.788435715134</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -480,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -561,6 +561,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,7 +573,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -651,6 +654,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>696265.27651067753</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>733363.80791297404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,7 +699,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -774,6 +780,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,7 +792,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -864,6 +873,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>643308.4880749624</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>654278.2570400479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,7 +918,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -987,6 +999,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,7 +1011,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1077,6 +1092,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-52956.788435715134</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79085.550872926135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,11 +1116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="358337536"/>
-        <c:axId val="359269120"/>
+        <c:axId val="345758336"/>
+        <c:axId val="346436352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="358337536"/>
+        <c:axId val="345758336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,14 +1163,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359269120"/>
+        <c:crossAx val="346436352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="359269120"/>
+        <c:axId val="346436352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1221,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358337536"/>
+        <c:crossAx val="345758336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1394,7 +1412,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1475,6 +1493,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37098.531402296496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,8 +1510,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="359320960"/>
-        <c:axId val="359318656"/>
+        <c:axId val="446569088"/>
+        <c:axId val="446567168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1515,7 +1536,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1596,6 +1617,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1605,7 +1629,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1686,6 +1710,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,11 +1729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="359310848"/>
-        <c:axId val="359312768"/>
+        <c:axId val="346485504"/>
+        <c:axId val="446083840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="359310848"/>
+        <c:axId val="346485504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,14 +1776,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359312768"/>
+        <c:crossAx val="446083840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="359312768"/>
+        <c:axId val="446083840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,12 +1834,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359310848"/>
+        <c:crossAx val="346485504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359318656"/>
+        <c:axId val="446567168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,12 +1876,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359320960"/>
+        <c:crossAx val="446569088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="359320960"/>
+        <c:axId val="446569088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,7 +1890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="359318656"/>
+        <c:crossAx val="446567168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2272,7 +2299,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3609,6 +3636,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75">
+      <c r="A30" s="11">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="12">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="13">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="13">
+        <v>37098.531402296496</v>
+      </c>
+      <c r="F30" s="14">
+        <v>54158.439814850673</v>
+      </c>
+      <c r="G30" s="14">
+        <v>955150.73687998706</v>
+      </c>
+      <c r="H30" s="14">
+        <v>654278.2570400479</v>
+      </c>
+      <c r="I30" s="14">
+        <v>733363.80791297404</v>
+      </c>
+      <c r="J30" s="14">
+        <v>654278.2570400479</v>
+      </c>
+      <c r="K30" s="14">
+        <v>-79085.550872926135</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -419,7 +415,7 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -480,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -564,6 +560,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,7 +572,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -657,6 +656,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>733363.80791297404</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>771292.18841627764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,7 +701,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -783,6 +785,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,7 +797,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -876,6 +881,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>654278.2570400479</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>671193.30721299967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +926,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1002,6 +1010,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,7 +1022,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1095,6 +1106,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-79085.550872926135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-100098.88120327797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,11 +1130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345758336"/>
-        <c:axId val="346436352"/>
+        <c:axId val="476602368"/>
+        <c:axId val="476604288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="345758336"/>
+        <c:axId val="476602368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,14 +1177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346436352"/>
+        <c:crossAx val="476604288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="346436352"/>
+        <c:axId val="476604288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1235,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345758336"/>
+        <c:crossAx val="476602368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1412,7 +1426,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1496,6 +1510,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>37098.531402296496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37928.380503303619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,8 +1527,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446569088"/>
-        <c:axId val="446567168"/>
+        <c:axId val="496947200"/>
+        <c:axId val="483987456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1536,7 +1553,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1620,6 +1637,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,7 +1649,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1713,6 +1733,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,11 +1752,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="346485504"/>
-        <c:axId val="446083840"/>
+        <c:axId val="476953216"/>
+        <c:axId val="483947648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="346485504"/>
+        <c:axId val="476953216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,14 +1799,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446083840"/>
+        <c:crossAx val="483947648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446083840"/>
+        <c:axId val="483947648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,12 +1857,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346485504"/>
+        <c:crossAx val="476953216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446567168"/>
+        <c:axId val="483987456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,12 +1899,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446569088"/>
+        <c:crossAx val="496947200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="446569088"/>
+        <c:axId val="496947200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446567168"/>
+        <c:crossAx val="483987456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2299,7 +2322,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2439,28 +2462,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -3674,6 +3697,47 @@
         <v>0</v>
       </c>
       <c r="M30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="12.75">
+      <c r="A31" s="11">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="12">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="12">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="13">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="13">
+        <v>37928.380503303619</v>
+      </c>
+      <c r="F31" s="14">
+        <v>57207.211481968698</v>
+      </c>
+      <c r="G31" s="14">
+        <v>1012357.9483619558</v>
+      </c>
+      <c r="H31" s="14">
+        <v>671193.30721299967</v>
+      </c>
+      <c r="I31" s="14">
+        <v>771292.18841627764</v>
+      </c>
+      <c r="J31" s="14">
+        <v>671193.30721299967</v>
+      </c>
+      <c r="K31" s="14">
+        <v>-100098.88120327797</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -415,7 +415,7 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
-            <a:endParaRPr/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -476,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -563,6 +563,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,7 +578,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -659,6 +665,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>771292.18841627764</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>811194.36685398582</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>850637.83985309303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,7 +713,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -788,6 +800,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,7 +815,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -884,6 +902,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>671193.30721299967</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>698947.22599237598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>731948.744248776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,7 +950,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1013,6 +1037,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1052,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1109,6 +1139,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-100098.88120327797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-112247.14086160983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-118689.09560431703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,11 +1166,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476602368"/>
-        <c:axId val="476604288"/>
+        <c:axId val="435820032"/>
+        <c:axId val="435822976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476602368"/>
+        <c:axId val="435820032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,14 +1213,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476604288"/>
+        <c:crossAx val="435822976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476604288"/>
+        <c:axId val="435822976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1271,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476602368"/>
+        <c:crossAx val="435820032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1426,7 +1462,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1513,6 +1549,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>37928.380503303619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39902.178437708179</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39443.472999107165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,8 +1569,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="496947200"/>
-        <c:axId val="483987456"/>
+        <c:axId val="465458688"/>
+        <c:axId val="465447936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1553,7 +1595,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1640,6 +1682,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,7 +1697,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1736,6 +1784,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,11 +1806,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476953216"/>
-        <c:axId val="483947648"/>
+        <c:axId val="439548160"/>
+        <c:axId val="465444864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476953216"/>
+        <c:axId val="439548160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,14 +1853,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483947648"/>
+        <c:crossAx val="465444864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483947648"/>
+        <c:axId val="465444864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,12 +1911,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476953216"/>
+        <c:crossAx val="439548160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483987456"/>
+        <c:axId val="465447936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,12 +1953,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496947200"/>
+        <c:crossAx val="465458688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="496947200"/>
+        <c:axId val="465458688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="483987456"/>
+        <c:crossAx val="465447936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2322,7 +2376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3741,6 +3795,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75">
+      <c r="A32" s="11">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="12">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="13">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="13">
+        <v>39902.178437708179</v>
+      </c>
+      <c r="F32" s="14">
+        <v>61293.666720134381</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1073651.6150820903</v>
+      </c>
+      <c r="H32" s="14">
+        <v>698947.22599237598</v>
+      </c>
+      <c r="I32" s="14">
+        <v>811194.36685398582</v>
+      </c>
+      <c r="J32" s="14">
+        <v>698947.22599237598</v>
+      </c>
+      <c r="K32" s="14">
+        <v>-112247.14086160983</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="12.75">
+      <c r="A33" s="11">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="12">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="13">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="13">
+        <v>39443.472999107165</v>
+      </c>
+      <c r="F33" s="14">
+        <v>61152.673124809051</v>
+      </c>
+      <c r="G33" s="14">
+        <v>1134804.2882068993</v>
+      </c>
+      <c r="H33" s="14">
+        <v>731948.744248776</v>
+      </c>
+      <c r="I33" s="14">
+        <v>850637.83985309303</v>
+      </c>
+      <c r="J33" s="14">
+        <v>731948.744248776</v>
+      </c>
+      <c r="K33" s="14">
+        <v>-118689.09560431703</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -569,6 +569,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,7 +581,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -671,6 +674,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>850637.83985309303</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>897866.50568122428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -713,7 +719,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -806,6 +812,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,7 +824,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -908,6 +917,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>731948.744248776</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>683853.85960763111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,7 +962,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1043,6 +1055,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1067,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1145,6 +1160,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-118689.09560431703</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-214012.64607359318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,11 +1184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435820032"/>
-        <c:axId val="435822976"/>
+        <c:axId val="92270976"/>
+        <c:axId val="92272512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435820032"/>
+        <c:axId val="92270976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,14 +1231,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435822976"/>
+        <c:crossAx val="92272512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435822976"/>
+        <c:axId val="92272512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1289,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435820032"/>
+        <c:crossAx val="92270976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1462,7 +1480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1555,6 +1573,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>39443.472999107165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47228.665828131299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,8 +1590,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465458688"/>
-        <c:axId val="465447936"/>
+        <c:axId val="93950720"/>
+        <c:axId val="93928064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1595,7 +1616,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1688,6 +1709,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,7 +1721,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1790,6 +1814,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1806,11 +1833,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439548160"/>
-        <c:axId val="465444864"/>
+        <c:axId val="93919872"/>
+        <c:axId val="93926144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439548160"/>
+        <c:axId val="93919872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,14 +1880,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465444864"/>
+        <c:crossAx val="93926144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465444864"/>
+        <c:axId val="93926144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,12 +1938,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439548160"/>
+        <c:crossAx val="93919872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="465447936"/>
+        <c:axId val="93928064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,12 +1980,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465458688"/>
+        <c:crossAx val="93950720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="465458688"/>
+        <c:axId val="93950720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,7 +1994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465447936"/>
+        <c:crossAx val="93928064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2376,7 +2403,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3877,6 +3904,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:13" ht="12.75">
+      <c r="A34" s="11">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="12">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="13">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="13">
+        <v>47228.665828131299</v>
+      </c>
+      <c r="F34" s="14">
+        <v>84186.571677867352</v>
+      </c>
+      <c r="G34" s="14">
+        <v>1218990.8598847666</v>
+      </c>
+      <c r="H34" s="14">
+        <v>683853.85960763111</v>
+      </c>
+      <c r="I34" s="14">
+        <v>897866.50568122428</v>
+      </c>
+      <c r="J34" s="14">
+        <v>683853.85960763111</v>
+      </c>
+      <c r="K34" s="14">
+        <v>-214012.64607359318</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -476,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -572,6 +576,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,7 +588,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -677,6 +684,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>897866.50568122428</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>935891.00400915544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,7 +729,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -815,6 +825,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,7 +837,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -920,6 +933,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>683853.85960763111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>815740.68088465545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +978,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1058,6 +1074,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,7 +1086,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1163,6 +1182,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-214012.64607359318</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-120150.32312449999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,11 +1206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92270976"/>
-        <c:axId val="92272512"/>
+        <c:axId val="407620608"/>
+        <c:axId val="407622400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92270976"/>
+        <c:axId val="407620608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,14 +1253,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92272512"/>
+        <c:crossAx val="407622400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92272512"/>
+        <c:axId val="407622400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1311,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92270976"/>
+        <c:crossAx val="407620608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1480,7 +1502,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1576,6 +1598,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47228.665828131299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38024.498327931113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,8 +1615,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93950720"/>
-        <c:axId val="93928064"/>
+        <c:axId val="420837632"/>
+        <c:axId val="420343808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1616,7 +1641,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1712,6 +1737,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,7 +1749,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1817,6 +1845,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,11 +1864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93919872"/>
-        <c:axId val="93926144"/>
+        <c:axId val="407734144"/>
+        <c:axId val="420289920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93919872"/>
+        <c:axId val="407734144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,14 +1911,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93926144"/>
+        <c:crossAx val="420289920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93926144"/>
+        <c:axId val="420289920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,12 +1969,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93919872"/>
+        <c:crossAx val="407734144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93928064"/>
+        <c:axId val="420343808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,12 +2011,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93950720"/>
+        <c:crossAx val="420837632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="93950720"/>
+        <c:axId val="420837632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +2025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93928064"/>
+        <c:crossAx val="420343808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2403,7 +2434,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2543,28 +2574,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -3942,6 +3973,47 @@
         <v>0</v>
       </c>
       <c r="M34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="12.75">
+      <c r="A35" s="11">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="12">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="13">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="13">
+        <v>38024.498327931113</v>
+      </c>
+      <c r="F35" s="14">
+        <v>59599.526090703235</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1278590.3859754698</v>
+      </c>
+      <c r="H35" s="14">
+        <v>815740.68088465545</v>
+      </c>
+      <c r="I35" s="14">
+        <v>935891.00400915544</v>
+      </c>
+      <c r="J35" s="14">
+        <v>815740.68088465545</v>
+      </c>
+      <c r="K35" s="14">
+        <v>-120150.32312449999</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -480,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -579,6 +579,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,7 +591,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -687,6 +690,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>935891.00400915544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>972150.5019069548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,7 +735,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -828,6 +834,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,7 +846,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -936,6 +945,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>815740.68088465545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>862228.92259935837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,7 +990,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1077,6 +1089,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,7 +1101,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1185,6 +1200,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-120150.32312449999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-109921.57930759643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,11 +1224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407620608"/>
-        <c:axId val="407622400"/>
+        <c:axId val="434907392"/>
+        <c:axId val="434910720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="407620608"/>
+        <c:axId val="434907392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,14 +1271,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407622400"/>
+        <c:crossAx val="434910720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407622400"/>
+        <c:axId val="434910720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,7 +1329,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407620608"/>
+        <c:crossAx val="434907392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1502,7 +1520,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1601,6 +1619,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>38024.498327931113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1615,8 +1636,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="420837632"/>
-        <c:axId val="420343808"/>
+        <c:axId val="456298880"/>
+        <c:axId val="456271360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1641,7 +1662,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1740,6 +1761,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,7 +1773,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1848,6 +1872,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,11 +1891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407734144"/>
-        <c:axId val="420289920"/>
+        <c:axId val="434960256"/>
+        <c:axId val="434961792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="407734144"/>
+        <c:axId val="434960256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,14 +1938,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420289920"/>
+        <c:crossAx val="434961792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="420289920"/>
+        <c:axId val="434961792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,12 +1996,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407734144"/>
+        <c:crossAx val="434960256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420343808"/>
+        <c:axId val="456271360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,12 +2038,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420837632"/>
+        <c:crossAx val="456298880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="420837632"/>
+        <c:axId val="456298880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="420343808"/>
+        <c:crossAx val="456271360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2434,7 +2461,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4017,6 +4044,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:13" ht="12.75">
+      <c r="A36" s="11">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="12">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="13">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="13">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F36" s="14">
+        <v>56129.251308757863</v>
+      </c>
+      <c r="G36" s="14">
+        <v>1334719.6372842276</v>
+      </c>
+      <c r="H36" s="14">
+        <v>862228.92259935837</v>
+      </c>
+      <c r="I36" s="14">
+        <v>972150.5019069548</v>
+      </c>
+      <c r="J36" s="14">
+        <v>862228.92259935837</v>
+      </c>
+      <c r="K36" s="14">
+        <v>-109921.57930759643</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -480,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -582,6 +582,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,7 +594,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -602,97 +605,100 @@
                   <c:v>14161.562985932418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32769.298882683892</c:v>
+                  <c:v>51377.034779435366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44436.113265071559</c:v>
+                  <c:v>74710.663544210707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57255.838220634025</c:v>
+                  <c:v>100350.11345533564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71470.226080923632</c:v>
+                  <c:v>128778.88917591485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97894.943696992981</c:v>
+                  <c:v>155203.6067919842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122460.50354360542</c:v>
+                  <c:v>179769.16663859665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156825.66970732121</c:v>
+                  <c:v>214134.33280231245</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>198048.32868455962</c:v>
+                  <c:v>255356.99177955085</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>239958.11501198969</c:v>
+                  <c:v>297266.7781069809</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>264878.271952888</c:v>
+                  <c:v>322186.93504787923</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>293854.29077638953</c:v>
+                  <c:v>351162.95387138077</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>325443.26614530955</c:v>
+                  <c:v>382751.92924030079</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>365060.51285164926</c:v>
+                  <c:v>422369.17594664049</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>404537.02305768989</c:v>
+                  <c:v>461845.68615268113</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>439721.86278135609</c:v>
+                  <c:v>497030.52587634732</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>473423.67442442547</c:v>
+                  <c:v>530732.3375194167</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>497558.03436598374</c:v>
+                  <c:v>554866.69746097503</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>524214.31724401086</c:v>
+                  <c:v>581522.98033900221</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>548835.01220042724</c:v>
+                  <c:v>606143.67529541859</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>574803.82180182589</c:v>
+                  <c:v>632112.48489681724</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>608395.92264148453</c:v>
+                  <c:v>665704.58573647588</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>637390.84148665029</c:v>
+                  <c:v>694699.50458164164</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>664460.27747876197</c:v>
+                  <c:v>721768.94057375332</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>696265.27651067753</c:v>
+                  <c:v>753573.93960566889</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>733363.80791297404</c:v>
+                  <c:v>790672.47100796539</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>771292.18841627764</c:v>
+                  <c:v>828600.85151126899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>811194.36685398582</c:v>
+                  <c:v>868503.02994897717</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>850637.83985309303</c:v>
+                  <c:v>907946.50294808438</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>897866.50568122428</c:v>
+                  <c:v>955175.16877621564</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>935891.00400915544</c:v>
+                  <c:v>993199.66710414679</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>972150.5019069548</c:v>
+                  <c:v>1029459.1650019462</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1096485.243558628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,7 +741,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -837,6 +843,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,7 +855,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -857,97 +866,100 @@
                   <c:v>14004.426853356539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32539.676068672419</c:v>
+                  <c:v>51147.411965423897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45290.016660959976</c:v>
+                  <c:v>76184.178810496203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58930.711732953183</c:v>
+                  <c:v>103204.61594042573</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72037.595509193401</c:v>
+                  <c:v>129693.83365660271</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91127.839279100357</c:v>
+                  <c:v>142913.83470434227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114772.92162732928</c:v>
+                  <c:v>166035.82944402678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137426.56121874889</c:v>
+                  <c:v>183458.55830706193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165982.37559535407</c:v>
+                  <c:v>207771.52364048728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>214356.00915354106</c:v>
+                  <c:v>257772.55087766188</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>267397.85299832979</c:v>
+                  <c:v>316510.27606320125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>282450.18775213772</c:v>
+                  <c:v>329005.27591328922</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>301344.76793716248</c:v>
+                  <c:v>345807.4918069602</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>313781.89555750543</c:v>
+                  <c:v>354234.25569030637</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>349200.87963044492</c:v>
+                  <c:v>389130.14869040746</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>401159.5877231498</c:v>
+                  <c:v>443006.85969304928</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>436532.87606210314</c:v>
+                  <c:v>478554.50941341947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>500516.70150597335</c:v>
+                  <c:v>546374.33374857553</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>510679.42763015447</c:v>
+                  <c:v>555025.91057900758</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>540654.57034428499</c:v>
+                  <c:v>585466.02390550438</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>552598.59015013964</c:v>
+                  <c:v>596247.6171804436</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>563380.39316840307</c:v>
+                  <c:v>605227.66513830272</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>619761.83169761067</c:v>
+                  <c:v>663643.34403409774</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>651756.51282777358</c:v>
+                  <c:v>695986.75139138824</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>643308.4880749624</c:v>
+                  <c:v>684807.03035344032</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>654278.2570400479</c:v>
+                  <c:v>694091.28517906601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>671193.30721299967</c:v>
+                  <c:v>709727.66790015774</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>698947.22599237598</c:v>
+                  <c:v>736784.13422527886</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>731948.744248776</c:v>
+                  <c:v>769436.92279025714</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>683853.85960763111</c:v>
+                  <c:v>716459.85711214948</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>815740.68088465545</c:v>
+                  <c:v>852822.01273853681</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>862228.92259935837</c:v>
+                  <c:v>899775.22506560583</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>991872.36512951169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +1002,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1092,6 +1104,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,7 +1116,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1112,97 +1127,100 @@
                   <c:v>-157.13613257587895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-229.62281401147266</c:v>
+                  <c:v>-229.62281401146902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>853.90339588841744</c:v>
+                  <c:v>1473.5152662854962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1674.8735123191582</c:v>
+                  <c:v>2854.5024850900954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>567.36942826976883</c:v>
+                  <c:v>914.94448068786005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6767.104417892624</c:v>
+                  <c:v>-12289.772087641933</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7687.5819162761327</c:v>
+                  <c:v>-13733.337194569875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19399.108488572325</c:v>
+                  <c:v>-30675.774495250516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-32065.953089205548</c:v>
+                  <c:v>-47585.468139063567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-25602.105858448631</c:v>
+                  <c:v>-39494.227229319018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2519.5810454417951</c:v>
+                  <c:v>-5676.6589846779825</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-11404.103024251817</c:v>
+                  <c:v>-22157.677958091546</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-24098.498208147066</c:v>
+                  <c:v>-36944.437433340587</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-51278.617294143827</c:v>
+                  <c:v>-68134.920256334124</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-55336.14342724497</c:v>
+                  <c:v>-72715.537462273671</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-38562.275058206287</c:v>
+                  <c:v>-54023.666183298046</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-36890.798362322326</c:v>
+                  <c:v>-52177.828105997236</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2958.667139989615</c:v>
+                  <c:v>-8492.3637123994995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-13534.889613856387</c:v>
+                  <c:v>-26497.069759994629</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8180.4418561422499</c:v>
+                  <c:v>-20677.651389914216</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-22205.231651686248</c:v>
+                  <c:v>-35864.867716373643</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-45015.529473081464</c:v>
+                  <c:v>-60476.920598173165</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-17629.009789039614</c:v>
+                  <c:v>-31056.160547543899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-12703.764650988393</c:v>
+                  <c:v>-25782.18918236508</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-52956.788435715134</c:v>
+                  <c:v>-68766.909252228565</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-79085.550872926135</c:v>
+                  <c:v>-96581.185828899383</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-100098.88120327797</c:v>
+                  <c:v>-118873.18361111125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-112247.14086160983</c:v>
+                  <c:v>-131718.89572369831</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-118689.09560431703</c:v>
+                  <c:v>-138509.58015782724</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-214012.64607359318</c:v>
+                  <c:v>-238715.31166406616</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-120150.32312449999</c:v>
+                  <c:v>-140377.65436560998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-109921.57930759643</c:v>
+                  <c:v>-129683.93993634032</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-104612.87842911633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,11 +1242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434907392"/>
-        <c:axId val="434910720"/>
+        <c:axId val="444923264"/>
+        <c:axId val="458101888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434907392"/>
+        <c:axId val="444923264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,14 +1289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434910720"/>
+        <c:crossAx val="458101888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434910720"/>
+        <c:axId val="458101888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434907392"/>
+        <c:crossAx val="444923264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1520,7 +1538,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1531,16 +1549,16 @@
                   <c:v>10209.589251649057</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18607.735896751474</c:v>
+                  <c:v>37215.471793502948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11666.814382387671</c:v>
+                  <c:v>23333.628764775342</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12819.724955562464</c:v>
+                  <c:v>25639.449911124928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14214.387860289606</c:v>
+                  <c:v>28428.775720579211</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>26424.717616069345</c:v>
@@ -1622,6 +1640,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67026.078556681867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,8 +1657,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="456298880"/>
-        <c:axId val="456271360"/>
+        <c:axId val="491153664"/>
+        <c:axId val="491152128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1662,7 +1683,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1764,6 +1785,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,7 +1797,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1875,6 +1899,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1891,11 +1918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434960256"/>
-        <c:axId val="434961792"/>
+        <c:axId val="474837760"/>
+        <c:axId val="491150336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434960256"/>
+        <c:axId val="474837760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,14 +1965,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434961792"/>
+        <c:crossAx val="491150336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434961792"/>
+        <c:axId val="491150336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,12 +2023,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434960256"/>
+        <c:crossAx val="474837760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456271360"/>
+        <c:axId val="491152128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,12 +2065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456298880"/>
+        <c:crossAx val="491153664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="456298880"/>
+        <c:axId val="491153664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +2079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456271360"/>
+        <c:crossAx val="491152128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2461,7 +2488,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2677,25 +2704,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="17">
-        <v>71470.226080923632</v>
+        <v>128778.88917591485</v>
       </c>
       <c r="R4" s="7">
-        <v>71470.226080923632</v>
+        <v>128778.88917591485</v>
       </c>
       <c r="S4" s="7">
-        <v>72037.595509193401</v>
+        <v>129693.83365660271</v>
       </c>
       <c r="T4" s="7">
-        <v>567.36942826976883</v>
+        <v>914.94448068786005</v>
       </c>
       <c r="U4" s="7">
         <v>0</v>
       </c>
       <c r="V4" s="18">
-        <v>7.9385425145759737E-3</v>
+        <v>7.104770716247019E-3</v>
       </c>
       <c r="W4" s="18">
-        <v>7.9385425145759737E-3</v>
+        <v>7.104770716247019E-3</v>
       </c>
       <c r="Y4" s="21">
         <v>44925</v>
@@ -2759,19 +2786,19 @@
         <v>401953.44834350183</v>
       </c>
       <c r="R5" s="7">
-        <v>473423.67442442547</v>
+        <v>530732.3375194167</v>
       </c>
       <c r="S5" s="7">
-        <v>436532.87606210314</v>
+        <v>478554.50941341947</v>
       </c>
       <c r="T5" s="7">
-        <v>-36890.798362322326</v>
+        <v>-52177.828105997236</v>
       </c>
       <c r="U5" s="7">
         <v>0</v>
       </c>
       <c r="V5" s="18">
-        <v>-7.7923433818921431E-2</v>
+        <v>-9.8312886585864623E-2</v>
       </c>
       <c r="W5" s="18">
         <v>-6.8314848168957498E-2</v>
@@ -2804,25 +2831,25 @@
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="13">
-        <v>18607.735896751474</v>
+        <v>37215.471793502948</v>
       </c>
       <c r="F6" s="14">
-        <v>19362.888550209649</v>
+        <v>38725.777100419298</v>
       </c>
       <c r="G6" s="14">
-        <v>33860.22483732822</v>
+        <v>53223.113387537873</v>
       </c>
       <c r="H6" s="14">
-        <v>32539.676068672419</v>
+        <v>51147.411965423897</v>
       </c>
       <c r="I6" s="14">
-        <v>32769.298882683892</v>
+        <v>51377.034779435366</v>
       </c>
       <c r="J6" s="14">
-        <v>32539.676068672419</v>
+        <v>51147.411965423897</v>
       </c>
       <c r="K6" s="14">
-        <v>-229.62281401147266</v>
+        <v>-229.62281401146902</v>
       </c>
       <c r="L6" s="13">
         <v>0</v>
@@ -2854,25 +2881,25 @@
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="13">
-        <v>11666.814382387671</v>
+        <v>23333.628764775342</v>
       </c>
       <c r="F7" s="14">
-        <v>11749.058131050662</v>
+        <v>23498.116262101325</v>
       </c>
       <c r="G7" s="14">
-        <v>45609.28296837888</v>
+        <v>76721.229649639194</v>
       </c>
       <c r="H7" s="14">
-        <v>45290.016660959976</v>
+        <v>76184.178810496203</v>
       </c>
       <c r="I7" s="14">
-        <v>44436.113265071559</v>
+        <v>74710.663544210707</v>
       </c>
       <c r="J7" s="14">
-        <v>45290.016660959976</v>
+        <v>76184.178810496203</v>
       </c>
       <c r="K7" s="14">
-        <v>853.90339588841744</v>
+        <v>1473.5152662854962</v>
       </c>
       <c r="L7" s="13">
         <v>0</v>
@@ -2899,25 +2926,25 @@
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="13">
-        <v>12819.724955562464</v>
+        <v>25639.449911124928</v>
       </c>
       <c r="F8" s="14">
-        <v>12680.241823879769</v>
+        <v>25360.483647759538</v>
       </c>
       <c r="G8" s="14">
-        <v>58289.52479225865</v>
+        <v>102081.71329739873</v>
       </c>
       <c r="H8" s="14">
-        <v>58930.711732953183</v>
+        <v>103204.61594042573</v>
       </c>
       <c r="I8" s="14">
-        <v>57255.838220634025</v>
+        <v>100350.11345533564</v>
       </c>
       <c r="J8" s="14">
-        <v>58930.711732953183</v>
+        <v>103204.61594042573</v>
       </c>
       <c r="K8" s="14">
-        <v>1674.8735123191582</v>
+        <v>2854.5024850900954</v>
       </c>
       <c r="L8" s="13">
         <v>0</v>
@@ -2940,25 +2967,25 @@
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="13">
-        <v>14214.387860289606</v>
+        <v>28428.775720579211</v>
       </c>
       <c r="F9" s="14">
-        <v>14329.020254635405</v>
+        <v>28658.04050927081</v>
       </c>
       <c r="G9" s="14">
-        <v>72618.545046894054</v>
+        <v>130739.75380666954</v>
       </c>
       <c r="H9" s="14">
-        <v>72037.595509193401</v>
+        <v>129693.83365660271</v>
       </c>
       <c r="I9" s="14">
-        <v>71470.226080923632</v>
+        <v>128778.88917591485</v>
       </c>
       <c r="J9" s="14">
-        <v>72037.595509193401</v>
+        <v>129693.83365660271</v>
       </c>
       <c r="K9" s="14">
-        <v>567.36942826976883</v>
+        <v>914.94448068786005</v>
       </c>
       <c r="L9" s="13">
         <v>0</v>
@@ -2990,19 +3017,19 @@
         <v>29657.371966496466</v>
       </c>
       <c r="G10" s="14">
-        <v>102275.91701339051</v>
+        <v>160397.12577316602</v>
       </c>
       <c r="H10" s="14">
-        <v>91127.839279100357</v>
+        <v>142913.83470434227</v>
       </c>
       <c r="I10" s="14">
-        <v>97894.943696992981</v>
+        <v>155203.6067919842</v>
       </c>
       <c r="J10" s="14">
-        <v>91127.839279100357</v>
+        <v>142913.83470434227</v>
       </c>
       <c r="K10" s="14">
-        <v>-6767.104417892624</v>
+        <v>-12289.772087641933</v>
       </c>
       <c r="L10" s="13">
         <v>0</v>
@@ -3034,19 +3061,19 @@
         <v>27852.107751106949</v>
       </c>
       <c r="G11" s="14">
-        <v>130128.02476449746</v>
+        <v>188249.23352427298</v>
       </c>
       <c r="H11" s="14">
-        <v>114772.92162732928</v>
+        <v>166035.82944402678</v>
       </c>
       <c r="I11" s="14">
-        <v>122460.50354360542</v>
+        <v>179769.16663859665</v>
       </c>
       <c r="J11" s="14">
-        <v>114772.92162732928</v>
+        <v>166035.82944402678</v>
       </c>
       <c r="K11" s="14">
-        <v>-7687.5819162761327</v>
+        <v>-13733.337194569875</v>
       </c>
       <c r="L11" s="13">
         <v>0</v>
@@ -3078,19 +3105,19 @@
         <v>43390.361552938171</v>
       </c>
       <c r="G12" s="14">
-        <v>173518.38631743562</v>
+        <v>231639.59507721115</v>
       </c>
       <c r="H12" s="14">
-        <v>137426.56121874889</v>
+        <v>183458.55830706193</v>
       </c>
       <c r="I12" s="14">
-        <v>156825.66970732121</v>
+        <v>214134.33280231245</v>
       </c>
       <c r="J12" s="14">
-        <v>137426.56121874889</v>
+        <v>183458.55830706193</v>
       </c>
       <c r="K12" s="14">
-        <v>-19399.108488572325</v>
+        <v>-30675.774495250516</v>
       </c>
       <c r="L12" s="13">
         <v>0</v>
@@ -3120,19 +3147,19 @@
         <v>57333.324083598687</v>
       </c>
       <c r="G13" s="14">
-        <v>230851.7104010343</v>
+        <v>288972.91916080983</v>
       </c>
       <c r="H13" s="14">
-        <v>165982.37559535407</v>
+        <v>207771.52364048728</v>
       </c>
       <c r="I13" s="14">
-        <v>198048.32868455962</v>
+        <v>255356.99177955085</v>
       </c>
       <c r="J13" s="14">
-        <v>165982.37559535407</v>
+        <v>207771.52364048728</v>
       </c>
       <c r="K13" s="14">
-        <v>-32065.953089205548</v>
+        <v>-47585.468139063567</v>
       </c>
       <c r="L13" s="13">
         <v>0</v>
@@ -3162,19 +3189,19 @@
         <v>56104.133205544349</v>
       </c>
       <c r="G14" s="14">
-        <v>286955.84360657865</v>
+        <v>345077.05236635415</v>
       </c>
       <c r="H14" s="14">
-        <v>214356.00915354106</v>
+        <v>257772.55087766188</v>
       </c>
       <c r="I14" s="14">
-        <v>239958.11501198969</v>
+        <v>297266.7781069809</v>
       </c>
       <c r="J14" s="14">
-        <v>214356.00915354106</v>
+        <v>257772.55087766188</v>
       </c>
       <c r="K14" s="14">
-        <v>-25602.105858448631</v>
+        <v>-39494.227229319018</v>
       </c>
       <c r="L14" s="13">
         <v>0</v>
@@ -3203,19 +3230,19 @@
         <v>29491.308990704383</v>
       </c>
       <c r="G15" s="14">
-        <v>316447.15259728301</v>
+        <v>374568.36135705851</v>
       </c>
       <c r="H15" s="14">
-        <v>267397.85299832979</v>
+        <v>316510.27606320125</v>
       </c>
       <c r="I15" s="14">
-        <v>264878.271952888</v>
+        <v>322186.93504787923</v>
       </c>
       <c r="J15" s="14">
-        <v>267397.85299832979</v>
+        <v>316510.27606320125</v>
       </c>
       <c r="K15" s="14">
-        <v>2519.5810454417951</v>
+        <v>-5676.6589846779825</v>
       </c>
       <c r="L15" s="13">
         <v>0</v>
@@ -3244,19 +3271,19 @@
         <v>36174.805066167937</v>
       </c>
       <c r="G16" s="14">
-        <v>352621.95766345097</v>
+        <v>410743.16642322647</v>
       </c>
       <c r="H16" s="14">
-        <v>282450.18775213772</v>
+        <v>329005.27591328922</v>
       </c>
       <c r="I16" s="14">
-        <v>293854.29077638953</v>
+        <v>351162.95387138077</v>
       </c>
       <c r="J16" s="14">
-        <v>282450.18775213772</v>
+        <v>329005.27591328922</v>
       </c>
       <c r="K16" s="14">
-        <v>-11404.103024251817</v>
+        <v>-22157.677958091546</v>
       </c>
       <c r="L16" s="13">
         <v>0</v>
@@ -3285,19 +3312,19 @@
         <v>41292.779032180362</v>
       </c>
       <c r="G17" s="14">
-        <v>393914.73669563135</v>
+        <v>452035.94545540685</v>
       </c>
       <c r="H17" s="14">
-        <v>301344.76793716248</v>
+        <v>345807.4918069602</v>
       </c>
       <c r="I17" s="14">
-        <v>325443.26614530955</v>
+        <v>382751.92924030079</v>
       </c>
       <c r="J17" s="14">
-        <v>301344.76793716248</v>
+        <v>345807.4918069602</v>
       </c>
       <c r="K17" s="14">
-        <v>-24098.498208147066</v>
+        <v>-36944.437433340587</v>
       </c>
       <c r="L17" s="13">
         <v>0</v>
@@ -3326,19 +3353,19 @@
         <v>56921.333112517765</v>
       </c>
       <c r="G18" s="14">
-        <v>450836.06980814913</v>
+        <v>508957.27856792463</v>
       </c>
       <c r="H18" s="14">
-        <v>313781.89555750543</v>
+        <v>354234.25569030637</v>
       </c>
       <c r="I18" s="14">
-        <v>365060.51285164926</v>
+        <v>422369.17594664049</v>
       </c>
       <c r="J18" s="14">
-        <v>313781.89555750543</v>
+        <v>354234.25569030637</v>
       </c>
       <c r="K18" s="14">
-        <v>-51278.617294143827</v>
+        <v>-68134.920256334124</v>
       </c>
       <c r="L18" s="13">
         <v>0</v>
@@ -3367,19 +3394,19 @@
         <v>57462.171104287372</v>
       </c>
       <c r="G19" s="14">
-        <v>508298.24091243651</v>
+        <v>566419.44967221201</v>
       </c>
       <c r="H19" s="14">
-        <v>349200.87963044492</v>
+        <v>389130.14869040746</v>
       </c>
       <c r="I19" s="14">
-        <v>404537.02305768989</v>
+        <v>461845.68615268113</v>
       </c>
       <c r="J19" s="14">
-        <v>349200.87963044492</v>
+        <v>389130.14869040746</v>
       </c>
       <c r="K19" s="14">
-        <v>-55336.14342724497</v>
+        <v>-72715.537462273671</v>
       </c>
       <c r="L19" s="13">
         <v>0</v>
@@ -3408,19 +3435,19 @@
         <v>48867.831007703237</v>
       </c>
       <c r="G20" s="14">
-        <v>557166.07192013972</v>
+        <v>615287.28067991522</v>
       </c>
       <c r="H20" s="14">
-        <v>401159.5877231498</v>
+        <v>443006.85969304928</v>
       </c>
       <c r="I20" s="14">
-        <v>439721.86278135609</v>
+        <v>497030.52587634732</v>
       </c>
       <c r="J20" s="14">
-        <v>401159.5877231498</v>
+        <v>443006.85969304928</v>
       </c>
       <c r="K20" s="14">
-        <v>-38562.275058206287</v>
+        <v>-54023.666183298046</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -3449,19 +3476,19 @@
         <v>46613.848008078661</v>
       </c>
       <c r="G21" s="14">
-        <v>603779.91992821835</v>
+        <v>661901.12868799386</v>
       </c>
       <c r="H21" s="14">
-        <v>436532.87606210314</v>
+        <v>478554.50941341947</v>
       </c>
       <c r="I21" s="14">
-        <v>473423.67442442547</v>
+        <v>530732.3375194167</v>
       </c>
       <c r="J21" s="14">
-        <v>436532.87606210314</v>
+        <v>478554.50941341947</v>
       </c>
       <c r="K21" s="14">
-        <v>-36890.798362322326</v>
+        <v>-52177.828105997236</v>
       </c>
       <c r="L21" s="13">
         <v>0</v>
@@ -3490,19 +3517,19 @@
         <v>30588.543364516147</v>
       </c>
       <c r="G22" s="14">
-        <v>634368.46329273446</v>
+        <v>692489.67205250997</v>
       </c>
       <c r="H22" s="14">
-        <v>500516.70150597335</v>
+        <v>546374.33374857553</v>
       </c>
       <c r="I22" s="14">
-        <v>497558.03436598374</v>
+        <v>554866.69746097503</v>
       </c>
       <c r="J22" s="14">
-        <v>500516.70150597335</v>
+        <v>546374.33374857553</v>
       </c>
       <c r="K22" s="14">
-        <v>2958.667139989615</v>
+        <v>-8492.3637123994995</v>
       </c>
       <c r="L22" s="13">
         <v>0</v>
@@ -3531,19 +3558,19 @@
         <v>34936.150036978543</v>
       </c>
       <c r="G23" s="14">
-        <v>669304.613329713</v>
+        <v>727425.8220894885</v>
       </c>
       <c r="H23" s="14">
-        <v>510679.42763015447</v>
+        <v>555025.91057900758</v>
       </c>
       <c r="I23" s="14">
-        <v>524214.31724401086</v>
+        <v>581522.98033900221</v>
       </c>
       <c r="J23" s="14">
-        <v>510679.42763015447</v>
+        <v>555025.91057900758</v>
       </c>
       <c r="K23" s="14">
-        <v>-13534.889613856387</v>
+        <v>-26497.069759994629</v>
       </c>
       <c r="L23" s="13">
         <v>0</v>
@@ -3572,19 +3599,19 @@
         <v>31933.455347920826</v>
       </c>
       <c r="G24" s="14">
-        <v>701238.06867763377</v>
+        <v>759359.27743740939</v>
       </c>
       <c r="H24" s="14">
-        <v>540654.57034428499</v>
+        <v>585466.02390550438</v>
       </c>
       <c r="I24" s="14">
-        <v>548835.01220042724</v>
+        <v>606143.67529541859</v>
       </c>
       <c r="J24" s="14">
-        <v>540654.57034428499</v>
+        <v>585466.02390550438</v>
       </c>
       <c r="K24" s="14">
-        <v>-8180.4418561422499</v>
+        <v>-20677.651389914216</v>
       </c>
       <c r="L24" s="13">
         <v>0</v>
@@ -3613,19 +3640,19 @@
         <v>34578.974762435661</v>
       </c>
       <c r="G25" s="14">
-        <v>735817.04344006942</v>
+        <v>793938.25219984504</v>
       </c>
       <c r="H25" s="14">
-        <v>552598.59015013964</v>
+        <v>596247.6171804436</v>
       </c>
       <c r="I25" s="14">
-        <v>574803.82180182589</v>
+        <v>632112.48489681724</v>
       </c>
       <c r="J25" s="14">
-        <v>552598.59015013964</v>
+        <v>596247.6171804436</v>
       </c>
       <c r="K25" s="14">
-        <v>-22205.231651686248</v>
+        <v>-35864.867716373643</v>
       </c>
       <c r="L25" s="13">
         <v>0</v>
@@ -3654,19 +3681,19 @@
         <v>46655.693756706351</v>
       </c>
       <c r="G26" s="14">
-        <v>782472.73719677574</v>
+        <v>840593.94595655135</v>
       </c>
       <c r="H26" s="14">
-        <v>563380.39316840307</v>
+        <v>605227.66513830272</v>
       </c>
       <c r="I26" s="14">
-        <v>608395.92264148453</v>
+        <v>665704.58573647588</v>
       </c>
       <c r="J26" s="14">
-        <v>563380.39316840307</v>
+        <v>605227.66513830272</v>
       </c>
       <c r="K26" s="14">
-        <v>-45015.529473081464</v>
+        <v>-60476.920598173165</v>
       </c>
       <c r="L26" s="13">
         <v>0</v>
@@ -3695,19 +3722,19 @@
         <v>38403.866262635274</v>
       </c>
       <c r="G27" s="14">
-        <v>820876.60345941107</v>
+        <v>878997.81221918669</v>
       </c>
       <c r="H27" s="14">
-        <v>619761.83169761067</v>
+        <v>663643.34403409774</v>
       </c>
       <c r="I27" s="14">
-        <v>637390.84148665029</v>
+        <v>694699.50458164164</v>
       </c>
       <c r="J27" s="14">
-        <v>619761.83169761067</v>
+        <v>663643.34403409774</v>
       </c>
       <c r="K27" s="14">
-        <v>-17629.009789039614</v>
+        <v>-31056.160547543899</v>
       </c>
       <c r="L27" s="13">
         <v>0</v>
@@ -3736,19 +3763,19 @@
         <v>35570.876201449297</v>
       </c>
       <c r="G28" s="14">
-        <v>856447.47966086038</v>
+        <v>914568.688420636</v>
       </c>
       <c r="H28" s="14">
-        <v>651756.51282777358</v>
+        <v>695986.75139138824</v>
       </c>
       <c r="I28" s="14">
-        <v>664460.27747876197</v>
+        <v>721768.94057375332</v>
       </c>
       <c r="J28" s="14">
-        <v>651756.51282777358</v>
+        <v>695986.75139138824</v>
       </c>
       <c r="K28" s="14">
-        <v>-12703.764650988393</v>
+        <v>-25782.18918236508</v>
       </c>
       <c r="L28" s="13">
         <v>0</v>
@@ -3777,19 +3804,19 @@
         <v>44544.817404276022</v>
       </c>
       <c r="G29" s="14">
-        <v>900992.29706513637</v>
+        <v>959113.50582491199</v>
       </c>
       <c r="H29" s="14">
-        <v>643308.4880749624</v>
+        <v>684807.03035344032</v>
       </c>
       <c r="I29" s="14">
-        <v>696265.27651067753</v>
+        <v>753573.93960566889</v>
       </c>
       <c r="J29" s="14">
-        <v>643308.4880749624</v>
+        <v>684807.03035344032</v>
       </c>
       <c r="K29" s="14">
-        <v>-52956.788435715134</v>
+        <v>-68766.909252228565</v>
       </c>
       <c r="L29" s="13">
         <v>0</v>
@@ -3818,19 +3845,19 @@
         <v>54158.439814850673</v>
       </c>
       <c r="G30" s="14">
-        <v>955150.73687998706</v>
+        <v>1013271.9456397627</v>
       </c>
       <c r="H30" s="14">
-        <v>654278.2570400479</v>
+        <v>694091.28517906601</v>
       </c>
       <c r="I30" s="14">
-        <v>733363.80791297404</v>
+        <v>790672.47100796539</v>
       </c>
       <c r="J30" s="14">
-        <v>654278.2570400479</v>
+        <v>694091.28517906601</v>
       </c>
       <c r="K30" s="14">
-        <v>-79085.550872926135</v>
+        <v>-96581.185828899383</v>
       </c>
       <c r="L30" s="13">
         <v>0</v>
@@ -3859,19 +3886,19 @@
         <v>57207.211481968698</v>
       </c>
       <c r="G31" s="14">
-        <v>1012357.9483619558</v>
+        <v>1070479.1571217314</v>
       </c>
       <c r="H31" s="14">
-        <v>671193.30721299967</v>
+        <v>709727.66790015774</v>
       </c>
       <c r="I31" s="14">
-        <v>771292.18841627764</v>
+        <v>828600.85151126899</v>
       </c>
       <c r="J31" s="14">
-        <v>671193.30721299967</v>
+        <v>709727.66790015774</v>
       </c>
       <c r="K31" s="14">
-        <v>-100098.88120327797</v>
+        <v>-118873.18361111125</v>
       </c>
       <c r="L31" s="13">
         <v>0</v>
@@ -3900,19 +3927,19 @@
         <v>61293.666720134381</v>
       </c>
       <c r="G32" s="14">
-        <v>1073651.6150820903</v>
+        <v>1131772.8238418659</v>
       </c>
       <c r="H32" s="14">
-        <v>698947.22599237598</v>
+        <v>736784.13422527886</v>
       </c>
       <c r="I32" s="14">
-        <v>811194.36685398582</v>
+        <v>868503.02994897717</v>
       </c>
       <c r="J32" s="14">
-        <v>698947.22599237598</v>
+        <v>736784.13422527886</v>
       </c>
       <c r="K32" s="14">
-        <v>-112247.14086160983</v>
+        <v>-131718.89572369831</v>
       </c>
       <c r="L32" s="13">
         <v>0</v>
@@ -3941,19 +3968,19 @@
         <v>61152.673124809051</v>
       </c>
       <c r="G33" s="14">
-        <v>1134804.2882068993</v>
+        <v>1192925.4969666749</v>
       </c>
       <c r="H33" s="14">
-        <v>731948.744248776</v>
+        <v>769436.92279025714</v>
       </c>
       <c r="I33" s="14">
-        <v>850637.83985309303</v>
+        <v>907946.50294808438</v>
       </c>
       <c r="J33" s="14">
-        <v>731948.744248776</v>
+        <v>769436.92279025714</v>
       </c>
       <c r="K33" s="14">
-        <v>-118689.09560431703</v>
+        <v>-138509.58015782724</v>
       </c>
       <c r="L33" s="13">
         <v>0</v>
@@ -3982,19 +4009,19 @@
         <v>84186.571677867352</v>
       </c>
       <c r="G34" s="14">
-        <v>1218990.8598847666</v>
+        <v>1277112.0686445422</v>
       </c>
       <c r="H34" s="14">
-        <v>683853.85960763111</v>
+        <v>716459.85711214948</v>
       </c>
       <c r="I34" s="14">
-        <v>897866.50568122428</v>
+        <v>955175.16877621564</v>
       </c>
       <c r="J34" s="14">
-        <v>683853.85960763111</v>
+        <v>716459.85711214948</v>
       </c>
       <c r="K34" s="14">
-        <v>-214012.64607359318</v>
+        <v>-238715.31166406616</v>
       </c>
       <c r="L34" s="13">
         <v>0</v>
@@ -4023,19 +4050,19 @@
         <v>59599.526090703235</v>
       </c>
       <c r="G35" s="14">
-        <v>1278590.3859754698</v>
+        <v>1336711.5947352455</v>
       </c>
       <c r="H35" s="14">
-        <v>815740.68088465545</v>
+        <v>852822.01273853681</v>
       </c>
       <c r="I35" s="14">
-        <v>935891.00400915544</v>
+        <v>993199.66710414679</v>
       </c>
       <c r="J35" s="14">
-        <v>815740.68088465545</v>
+        <v>852822.01273853681</v>
       </c>
       <c r="K35" s="14">
-        <v>-120150.32312449999</v>
+        <v>-140377.65436560998</v>
       </c>
       <c r="L35" s="13">
         <v>0</v>
@@ -4064,25 +4091,66 @@
         <v>56129.251308757863</v>
       </c>
       <c r="G36" s="14">
-        <v>1334719.6372842276</v>
+        <v>1392840.8460440033</v>
       </c>
       <c r="H36" s="14">
-        <v>862228.92259935837</v>
+        <v>899775.22506560583</v>
       </c>
       <c r="I36" s="14">
-        <v>972150.5019069548</v>
+        <v>1029459.1650019462</v>
       </c>
       <c r="J36" s="14">
-        <v>862228.92259935837</v>
+        <v>899775.22506560583</v>
       </c>
       <c r="K36" s="14">
-        <v>-109921.57930759643</v>
+        <v>-129683.93993634032</v>
       </c>
       <c r="L36" s="13">
         <v>0</v>
       </c>
       <c r="M36" s="8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12.75">
+      <c r="A37" s="11">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="12">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="12">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="13">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="13">
+        <v>67026.078556681867</v>
+      </c>
+      <c r="F37" s="14">
+        <v>100942.89323456016</v>
+      </c>
+      <c r="G37" s="14">
+        <v>1493783.7392785635</v>
+      </c>
+      <c r="H37" s="14">
+        <v>991872.36512951169</v>
+      </c>
+      <c r="I37" s="14">
+        <v>1096485.243558628</v>
+      </c>
+      <c r="J37" s="14">
+        <v>991872.36512951169</v>
+      </c>
+      <c r="K37" s="14">
+        <v>-104612.87842911633</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -608,97 +608,97 @@
                   <c:v>51377.034779435366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74710.663544210707</c:v>
+                  <c:v>74710.663567042648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100350.11345533564</c:v>
+                  <c:v>100350.10748708269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128778.88917591485</c:v>
+                  <c:v>128778.87492621085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>155203.6067919842</c:v>
+                  <c:v>155203.590814508</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>179769.16663859665</c:v>
+                  <c:v>179769.15072243867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>214134.33280231245</c:v>
+                  <c:v>214134.31695496323</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>255356.99177955085</c:v>
+                  <c:v>255356.97599164356</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>297266.7781069809</c:v>
+                  <c:v>297266.76237432554</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>322186.93504787923</c:v>
+                  <c:v>322186.91938540846</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>351162.95387138077</c:v>
+                  <c:v>351162.93824504595</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>382751.92924030079</c:v>
+                  <c:v>382751.9136804138</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>422369.17594664049</c:v>
+                  <c:v>422369.15801961161</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>461845.68615268113</c:v>
+                  <c:v>461845.66826321476</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>497030.52587634732</c:v>
+                  <c:v>497030.50804261619</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>530732.3375194167</c:v>
+                  <c:v>530732.31971904507</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>554866.69746097503</c:v>
+                  <c:v>554866.67969700904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>581522.98033900221</c:v>
+                  <c:v>581522.96260100685</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>606143.67529541859</c:v>
+                  <c:v>606143.6576008196</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>632112.48489681724</c:v>
+                  <c:v>632112.46721964586</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>665704.58573647588</c:v>
+                  <c:v>665704.5680755002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>694699.50458164164</c:v>
+                  <c:v>694699.48693877889</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>721768.94057375332</c:v>
+                  <c:v>721768.92296980228</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>753573.93960566889</c:v>
+                  <c:v>753573.92203503218</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>790672.47100796539</c:v>
+                  <c:v>790672.45346393308</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>828600.85151126899</c:v>
+                  <c:v>828600.83400187676</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>868503.02994897717</c:v>
+                  <c:v>868503.01248365466</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>907946.50294808438</c:v>
+                  <c:v>907946.48548944388</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>955175.16877621564</c:v>
+                  <c:v>955175.15132356319</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>993199.66710414679</c:v>
+                  <c:v>993199.64966584125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1029459.1650019462</c:v>
+                  <c:v>1029301.3619161519</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1096485.243558628</c:v>
+                  <c:v>1096327.4405141789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,97 +869,97 @@
                   <c:v>51147.411965423897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76184.178810496203</c:v>
+                  <c:v>76184.178833328144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103204.61594042573</c:v>
+                  <c:v>103204.60997258668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129693.83365660271</c:v>
+                  <c:v>129693.81951946815</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>142913.83470434227</c:v>
+                  <c:v>142913.8202788012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166035.82944402678</c:v>
+                  <c:v>166035.81522551557</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>183458.55830706193</c:v>
+                  <c:v>183458.54560822845</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>207771.52364048728</c:v>
+                  <c:v>207771.51217156922</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>257772.55087766188</c:v>
+                  <c:v>257772.53901736197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>316510.27606320125</c:v>
+                  <c:v>316510.2627171154</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>329005.27591328922</c:v>
+                  <c:v>329005.26329828385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>345807.4918069602</c:v>
+                  <c:v>345807.47982536932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>354234.25569030637</c:v>
+                  <c:v>354234.24242226628</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>389130.14869040746</c:v>
+                  <c:v>389130.1356314994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>443006.85969304928</c:v>
+                  <c:v>443006.84606259165</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>478554.50941341947</c:v>
+                  <c:v>478554.4957595286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>546374.33374857553</c:v>
+                  <c:v>546374.31888467749</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>555025.91057900758</c:v>
+                  <c:v>555025.89623089111</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>585466.02390550438</c:v>
+                  <c:v>585466.00945034495</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>596247.6171804436</c:v>
+                  <c:v>596247.60311768425</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>605227.66513830272</c:v>
+                  <c:v>605227.65167222498</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>663643.34403409774</c:v>
+                  <c:v>663643.32993153261</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>695986.75139138824</c:v>
+                  <c:v>695986.73721566179</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>684807.03035344032</c:v>
+                  <c:v>684807.01708653278</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>694091.28517906601</c:v>
+                  <c:v>694091.27247761446</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>709727.66790015774</c:v>
+                  <c:v>709727.65564127627</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>736784.13422527886</c:v>
+                  <c:v>736784.12223234656</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>769436.92279025714</c:v>
+                  <c:v>769436.91091454169</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>716459.85711214948</c:v>
+                  <c:v>716459.84678902663</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>852822.01273853681</c:v>
+                  <c:v>852822.00101286138</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>899775.22506560583</c:v>
+                  <c:v>899617.42754541116</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>991872.36512951169</c:v>
+                  <c:v>991710.17082885141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,94 +1133,94 @@
                   <c:v>1473.5152662854962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2854.5024850900954</c:v>
+                  <c:v>2854.5024855039956</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>914.94448068786005</c:v>
+                  <c:v>914.94459325729986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-12289.772087641933</c:v>
+                  <c:v>-12289.770535706804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-13733.337194569875</c:v>
+                  <c:v>-13733.3354969231</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-30675.774495250516</c:v>
+                  <c:v>-30675.771346734778</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-47585.468139063567</c:v>
+                  <c:v>-47585.463820074336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-39494.227229319018</c:v>
+                  <c:v>-39494.223356963572</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5676.6589846779825</c:v>
+                  <c:v>-5676.656668293057</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-22157.677958091546</c:v>
+                  <c:v>-22157.674946762098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-36944.437433340587</c:v>
+                  <c:v>-36944.433855044481</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-68134.920256334124</c:v>
+                  <c:v>-68134.915597345331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-72715.537462273671</c:v>
+                  <c:v>-72715.532631715352</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-54023.666183298046</c:v>
+                  <c:v>-54023.661980024539</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-52177.828105997236</c:v>
+                  <c:v>-52177.823959516478</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8492.3637123994995</c:v>
+                  <c:v>-8492.3608123315498</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-26497.069759994629</c:v>
+                  <c:v>-26497.066370115732</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-20677.651389914216</c:v>
+                  <c:v>-20677.648150474648</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-35864.867716373643</c:v>
+                  <c:v>-35864.864101961604</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-60476.920598173165</c:v>
+                  <c:v>-60476.916403275216</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-31056.160547543899</c:v>
+                  <c:v>-31056.157007246278</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-25782.18918236508</c:v>
+                  <c:v>-25782.18575414049</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-68766.909252228565</c:v>
+                  <c:v>-68766.904948499403</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-96581.185828899383</c:v>
+                  <c:v>-96581.180986318621</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-118873.18361111125</c:v>
+                  <c:v>-118873.17836060049</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-131718.89572369831</c:v>
+                  <c:v>-131718.8902513081</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-138509.58015782724</c:v>
+                  <c:v>-138509.57457490219</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-238715.31166406616</c:v>
+                  <c:v>-238715.30453453655</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-140377.65436560998</c:v>
+                  <c:v>-140377.64865297987</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-129683.93993634032</c:v>
+                  <c:v>-129683.93437074078</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-104612.87842911633</c:v>
+                  <c:v>-104617.26968532754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,11 +1242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="444923264"/>
-        <c:axId val="458101888"/>
+        <c:axId val="448882560"/>
+        <c:axId val="485171200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="444923264"/>
+        <c:axId val="448882560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,14 +1289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458101888"/>
+        <c:crossAx val="485171200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458101888"/>
+        <c:axId val="485171200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444923264"/>
+        <c:crossAx val="448882560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1552,97 +1552,97 @@
                   <c:v>37215.471793502948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23333.628764775342</c:v>
+                  <c:v>23333.628787607278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25639.449911124928</c:v>
+                  <c:v>25639.443920040045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28428.775720579211</c:v>
+                  <c:v>28428.767439128158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26424.717616069345</c:v>
+                  <c:v>26424.71588829716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24565.559846612443</c:v>
+                  <c:v>24565.559907930678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34365.166163715803</c:v>
+                  <c:v>34365.166232524549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41222.658977238403</c:v>
+                  <c:v>41222.659036680328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41909.786327430069</c:v>
+                  <c:v>41909.786382681988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24920.156940898323</c:v>
+                  <c:v>24920.157011082942</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28976.018823501534</c:v>
+                  <c:v>28976.018859637465</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31588.975368920033</c:v>
+                  <c:v>31588.975435367818</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39617.246706339683</c:v>
+                  <c:v>39617.24433919783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39476.510206040606</c:v>
+                  <c:v>39476.510243603116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35184.839723666191</c:v>
+                  <c:v>35184.839779401416</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33701.811643069363</c:v>
+                  <c:v>33701.811676428908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24134.359941558272</c:v>
+                  <c:v>24134.359977963992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26656.282878027137</c:v>
+                  <c:v>26656.282903997755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24620.694956416326</c:v>
+                  <c:v>24620.694999812695</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25968.8096013986</c:v>
+                  <c:v>25968.809618826315</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>33592.100839658677</c:v>
+                  <c:v>33592.100855854354</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28994.918845165728</c:v>
+                  <c:v>28994.918863278643</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27069.435992111685</c:v>
+                  <c:v>27069.436031023346</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31804.999031915606</c:v>
+                  <c:v>31804.999065229906</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37098.531402296496</c:v>
+                  <c:v>37098.531428900846</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37928.380503303619</c:v>
+                  <c:v>37928.380537943682</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39902.178437708179</c:v>
+                  <c:v>39902.178481777861</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39443.472999107165</c:v>
+                  <c:v>39443.473005789252</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47228.665828131299</c:v>
+                  <c:v>47228.66583411934</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38024.498327931113</c:v>
+                  <c:v>38024.498342278057</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>36259.497897799316</c:v>
+                  <c:v>36101.712250310709</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>67026.078556681867</c:v>
+                  <c:v>67026.078598027074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,8 +1657,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491153664"/>
-        <c:axId val="491152128"/>
+        <c:axId val="485198848"/>
+        <c:axId val="485197312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1918,11 +1918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474837760"/>
-        <c:axId val="491150336"/>
+        <c:axId val="485193216"/>
+        <c:axId val="485194752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474837760"/>
+        <c:axId val="485193216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,14 +1965,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491150336"/>
+        <c:crossAx val="485194752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491150336"/>
+        <c:axId val="485194752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2023,12 +2023,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474837760"/>
+        <c:crossAx val="485193216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491152128"/>
+        <c:axId val="485197312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,12 +2065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491153664"/>
+        <c:crossAx val="485198848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491153664"/>
+        <c:axId val="485198848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491152128"/>
+        <c:crossAx val="485197312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2704,25 +2704,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="17">
-        <v>128778.88917591485</v>
+        <v>128778.87492621085</v>
       </c>
       <c r="R4" s="7">
-        <v>128778.88917591485</v>
+        <v>128778.87492621085</v>
       </c>
       <c r="S4" s="7">
-        <v>129693.83365660271</v>
+        <v>129693.81951946815</v>
       </c>
       <c r="T4" s="7">
-        <v>914.94448068786005</v>
+        <v>914.94459325729986</v>
       </c>
       <c r="U4" s="7">
         <v>0</v>
       </c>
       <c r="V4" s="18">
-        <v>7.104770716247019E-3</v>
+        <v>7.10477237653734E-3</v>
       </c>
       <c r="W4" s="18">
-        <v>7.104770716247019E-3</v>
+        <v>7.10477237653734E-3</v>
       </c>
       <c r="Y4" s="21">
         <v>44925</v>
@@ -2783,22 +2783,22 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="17">
-        <v>401953.44834350183</v>
+        <v>401953.44479283423</v>
       </c>
       <c r="R5" s="7">
-        <v>530732.3375194167</v>
+        <v>530732.31971904507</v>
       </c>
       <c r="S5" s="7">
-        <v>478554.50941341947</v>
+        <v>478554.4957595286</v>
       </c>
       <c r="T5" s="7">
-        <v>-52177.828105997236</v>
+        <v>-52177.823959516478</v>
       </c>
       <c r="U5" s="7">
         <v>0</v>
       </c>
       <c r="V5" s="18">
-        <v>-9.8312886585864623E-2</v>
+        <v>-9.8312882070453078E-2</v>
       </c>
       <c r="W5" s="18">
         <v>-6.8314848168957498E-2</v>
@@ -2875,28 +2875,28 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="12">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="13">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="13">
-        <v>23333.628764775342</v>
+        <v>23333.628787607278</v>
       </c>
       <c r="F7" s="14">
-        <v>23498.116262101325</v>
+        <v>23498.116285094213</v>
       </c>
       <c r="G7" s="14">
-        <v>76721.229649639194</v>
+        <v>76721.229672632093</v>
       </c>
       <c r="H7" s="14">
-        <v>76184.178810496203</v>
+        <v>76184.178833328144</v>
       </c>
       <c r="I7" s="14">
-        <v>74710.663544210707</v>
+        <v>74710.663567042648</v>
       </c>
       <c r="J7" s="14">
-        <v>76184.178810496203</v>
+        <v>76184.178833328144</v>
       </c>
       <c r="K7" s="14">
         <v>1473.5152662854962</v>
@@ -2920,31 +2920,31 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="12">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="13">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="13">
-        <v>25639.449911124928</v>
+        <v>25639.443920040045</v>
       </c>
       <c r="F8" s="14">
-        <v>25360.483647759538</v>
+        <v>25360.477721859774</v>
       </c>
       <c r="G8" s="14">
-        <v>102081.71329739873</v>
+        <v>102081.70739449187</v>
       </c>
       <c r="H8" s="14">
-        <v>103204.61594042573</v>
+        <v>103204.60997258668</v>
       </c>
       <c r="I8" s="14">
-        <v>100350.11345533564</v>
+        <v>100350.10748708269</v>
       </c>
       <c r="J8" s="14">
-        <v>103204.61594042573</v>
+        <v>103204.60997258668</v>
       </c>
       <c r="K8" s="14">
-        <v>2854.5024850900954</v>
+        <v>2854.5024855039956</v>
       </c>
       <c r="L8" s="13">
         <v>0</v>
@@ -2961,31 +2961,31 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="12">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="13">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="13">
-        <v>28428.775720579211</v>
+        <v>28428.767439128158</v>
       </c>
       <c r="F9" s="14">
-        <v>28658.04050927081</v>
+        <v>28658.032161033723</v>
       </c>
       <c r="G9" s="14">
-        <v>130739.75380666954</v>
+        <v>130739.73955552559</v>
       </c>
       <c r="H9" s="14">
-        <v>129693.83365660271</v>
+        <v>129693.81951946815</v>
       </c>
       <c r="I9" s="14">
-        <v>128778.88917591485</v>
+        <v>128778.87492621085</v>
       </c>
       <c r="J9" s="14">
-        <v>129693.83365660271</v>
+        <v>129693.81951946815</v>
       </c>
       <c r="K9" s="14">
-        <v>914.94448068786005</v>
+        <v>914.94459325729986</v>
       </c>
       <c r="L9" s="13">
         <v>0</v>
@@ -3005,31 +3005,31 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="12">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="13">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="13">
-        <v>26424.717616069345</v>
+        <v>26424.71588829716</v>
       </c>
       <c r="F10" s="14">
-        <v>29657.371966496466</v>
+        <v>29657.370027358153</v>
       </c>
       <c r="G10" s="14">
-        <v>160397.12577316602</v>
+        <v>160397.10958288374</v>
       </c>
       <c r="H10" s="14">
-        <v>142913.83470434227</v>
+        <v>142913.8202788012</v>
       </c>
       <c r="I10" s="14">
-        <v>155203.6067919842</v>
+        <v>155203.590814508</v>
       </c>
       <c r="J10" s="14">
-        <v>142913.83470434227</v>
+        <v>142913.8202788012</v>
       </c>
       <c r="K10" s="14">
-        <v>-12289.772087641933</v>
+        <v>-12289.770535706804</v>
       </c>
       <c r="L10" s="13">
         <v>0</v>
@@ -3049,31 +3049,31 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="12">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="13">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="13">
-        <v>24565.559846612443</v>
+        <v>24565.559907930678</v>
       </c>
       <c r="F11" s="14">
-        <v>27852.107751106949</v>
+        <v>27852.107820628753</v>
       </c>
       <c r="G11" s="14">
-        <v>188249.23352427298</v>
+        <v>188249.21740351251</v>
       </c>
       <c r="H11" s="14">
-        <v>166035.82944402678</v>
+        <v>166035.81522551557</v>
       </c>
       <c r="I11" s="14">
-        <v>179769.16663859665</v>
+        <v>179769.15072243867</v>
       </c>
       <c r="J11" s="14">
-        <v>166035.82944402678</v>
+        <v>166035.81522551557</v>
       </c>
       <c r="K11" s="14">
-        <v>-13733.337194569875</v>
+        <v>-13733.3354969231</v>
       </c>
       <c r="L11" s="13">
         <v>0</v>
@@ -3093,31 +3093,31 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="12">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="13">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E12" s="13">
-        <v>34365.166163715803</v>
+        <v>34365.166232524549</v>
       </c>
       <c r="F12" s="14">
-        <v>43390.361552938171</v>
+        <v>43390.3616398179</v>
       </c>
       <c r="G12" s="14">
-        <v>231639.59507721115</v>
+        <v>231639.57904333039</v>
       </c>
       <c r="H12" s="14">
-        <v>183458.55830706193</v>
+        <v>183458.54560822845</v>
       </c>
       <c r="I12" s="14">
-        <v>214134.33280231245</v>
+        <v>214134.31695496323</v>
       </c>
       <c r="J12" s="14">
-        <v>183458.55830706193</v>
+        <v>183458.54560822845</v>
       </c>
       <c r="K12" s="14">
-        <v>-30675.774495250516</v>
+        <v>-30675.771346734778</v>
       </c>
       <c r="L12" s="13">
         <v>0</v>
@@ -3135,31 +3135,31 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="12">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="13">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E13" s="13">
-        <v>41222.658977238403</v>
+        <v>41222.659036680328</v>
       </c>
       <c r="F13" s="14">
-        <v>57333.324083598687</v>
+        <v>57333.324166271741</v>
       </c>
       <c r="G13" s="14">
-        <v>288972.91916080983</v>
+        <v>288972.90320960211</v>
       </c>
       <c r="H13" s="14">
-        <v>207771.52364048728</v>
+        <v>207771.51217156922</v>
       </c>
       <c r="I13" s="14">
-        <v>255356.99177955085</v>
+        <v>255356.97599164356</v>
       </c>
       <c r="J13" s="14">
-        <v>207771.52364048728</v>
+        <v>207771.51217156922</v>
       </c>
       <c r="K13" s="14">
-        <v>-47585.468139063567</v>
+        <v>-47585.463820074336</v>
       </c>
       <c r="L13" s="13">
         <v>0</v>
@@ -3177,31 +3177,31 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="12">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="13">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E14" s="13">
-        <v>41909.786327430069</v>
+        <v>41909.786382681988</v>
       </c>
       <c r="F14" s="14">
-        <v>56104.133205544349</v>
+        <v>56104.133279509435</v>
       </c>
       <c r="G14" s="14">
-        <v>345077.05236635415</v>
+        <v>345077.03648911155</v>
       </c>
       <c r="H14" s="14">
-        <v>257772.55087766188</v>
+        <v>257772.53901736197</v>
       </c>
       <c r="I14" s="14">
-        <v>297266.7781069809</v>
+        <v>297266.76237432554</v>
       </c>
       <c r="J14" s="14">
-        <v>257772.55087766188</v>
+        <v>257772.53901736197</v>
       </c>
       <c r="K14" s="14">
-        <v>-39494.227229319018</v>
+        <v>-39494.223356963572</v>
       </c>
       <c r="L14" s="13">
         <v>0</v>
@@ -3218,31 +3218,31 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="12">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="13">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E15" s="13">
-        <v>24920.156940898323</v>
+        <v>24920.157011082942</v>
       </c>
       <c r="F15" s="14">
-        <v>29491.308990704383</v>
+        <v>29491.309073763103</v>
       </c>
       <c r="G15" s="14">
-        <v>374568.36135705851</v>
+        <v>374568.34556287463</v>
       </c>
       <c r="H15" s="14">
-        <v>316510.27606320125</v>
+        <v>316510.2627171154</v>
       </c>
       <c r="I15" s="14">
-        <v>322186.93504787923</v>
+        <v>322186.91938540846</v>
       </c>
       <c r="J15" s="14">
-        <v>316510.27606320125</v>
+        <v>316510.2627171154</v>
       </c>
       <c r="K15" s="14">
-        <v>-5676.6589846779825</v>
+        <v>-5676.656668293057</v>
       </c>
       <c r="L15" s="13">
         <v>0</v>
@@ -3259,31 +3259,31 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="12">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="13">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E16" s="13">
-        <v>28976.018823501534</v>
+        <v>28976.018859637465</v>
       </c>
       <c r="F16" s="14">
-        <v>36174.805066167937</v>
+        <v>36174.805111281457</v>
       </c>
       <c r="G16" s="14">
-        <v>410743.16642322647</v>
+        <v>410743.15067415609</v>
       </c>
       <c r="H16" s="14">
-        <v>329005.27591328922</v>
+        <v>329005.26329828385</v>
       </c>
       <c r="I16" s="14">
-        <v>351162.95387138077</v>
+        <v>351162.93824504595</v>
       </c>
       <c r="J16" s="14">
-        <v>329005.27591328922</v>
+        <v>329005.26329828385</v>
       </c>
       <c r="K16" s="14">
-        <v>-22157.677958091546</v>
+        <v>-22157.674946762098</v>
       </c>
       <c r="L16" s="13">
         <v>0</v>
@@ -3300,31 +3300,31 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="12">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="13">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E17" s="13">
-        <v>31588.975368920033</v>
+        <v>31588.975435367818</v>
       </c>
       <c r="F17" s="14">
-        <v>41292.779032180362</v>
+        <v>41292.779119040213</v>
       </c>
       <c r="G17" s="14">
-        <v>452035.94545540685</v>
+        <v>452035.92979319632</v>
       </c>
       <c r="H17" s="14">
-        <v>345807.4918069602</v>
+        <v>345807.47982536932</v>
       </c>
       <c r="I17" s="14">
-        <v>382751.92924030079</v>
+        <v>382751.9136804138</v>
       </c>
       <c r="J17" s="14">
-        <v>345807.4918069602</v>
+        <v>345807.47982536932</v>
       </c>
       <c r="K17" s="14">
-        <v>-36944.437433340587</v>
+        <v>-36944.433855044481</v>
       </c>
       <c r="L17" s="13">
         <v>0</v>
@@ -3341,31 +3341,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="12">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="13">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E18" s="13">
-        <v>39617.246706339683</v>
+        <v>39617.24433919783</v>
       </c>
       <c r="F18" s="14">
-        <v>56921.333112517765</v>
+        <v>56921.329711451792</v>
       </c>
       <c r="G18" s="14">
-        <v>508957.27856792463</v>
+        <v>508957.2595046481</v>
       </c>
       <c r="H18" s="14">
-        <v>354234.25569030637</v>
+        <v>354234.24242226628</v>
       </c>
       <c r="I18" s="14">
-        <v>422369.17594664049</v>
+        <v>422369.15801961161</v>
       </c>
       <c r="J18" s="14">
-        <v>354234.25569030637</v>
+        <v>354234.24242226628</v>
       </c>
       <c r="K18" s="14">
-        <v>-68134.920256334124</v>
+        <v>-68134.915597345331</v>
       </c>
       <c r="L18" s="13">
         <v>0</v>
@@ -3382,31 +3382,31 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="12">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="13">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E19" s="13">
-        <v>39476.510206040606</v>
+        <v>39476.510243603116</v>
       </c>
       <c r="F19" s="14">
-        <v>57462.171104287372</v>
+        <v>57462.171158963516</v>
       </c>
       <c r="G19" s="14">
-        <v>566419.44967221201</v>
+        <v>566419.43066361162</v>
       </c>
       <c r="H19" s="14">
-        <v>389130.14869040746</v>
+        <v>389130.1356314994</v>
       </c>
       <c r="I19" s="14">
-        <v>461845.68615268113</v>
+        <v>461845.66826321476</v>
       </c>
       <c r="J19" s="14">
-        <v>389130.14869040746</v>
+        <v>389130.1356314994</v>
       </c>
       <c r="K19" s="14">
-        <v>-72715.537462273671</v>
+        <v>-72715.532631715352</v>
       </c>
       <c r="L19" s="13">
         <v>0</v>
@@ -3423,31 +3423,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="12">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="13">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E20" s="13">
-        <v>35184.839723666191</v>
+        <v>35184.839779401416</v>
       </c>
       <c r="F20" s="14">
-        <v>48867.831007703237</v>
+        <v>48867.83108511327</v>
       </c>
       <c r="G20" s="14">
-        <v>615287.28067991522</v>
+        <v>615287.26174872485</v>
       </c>
       <c r="H20" s="14">
-        <v>443006.85969304928</v>
+        <v>443006.84606259165</v>
       </c>
       <c r="I20" s="14">
-        <v>497030.52587634732</v>
+        <v>497030.50804261619</v>
       </c>
       <c r="J20" s="14">
-        <v>443006.85969304928</v>
+        <v>443006.84606259165</v>
       </c>
       <c r="K20" s="14">
-        <v>-54023.666183298046</v>
+        <v>-54023.661980024539</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -3464,31 +3464,31 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="12">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="13">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E21" s="13">
-        <v>33701.811643069363</v>
+        <v>33701.811676428908</v>
       </c>
       <c r="F21" s="14">
-        <v>46613.848008078661</v>
+        <v>46613.848054219117</v>
       </c>
       <c r="G21" s="14">
-        <v>661901.12868799386</v>
+        <v>661901.109802944</v>
       </c>
       <c r="H21" s="14">
-        <v>478554.50941341947</v>
+        <v>478554.4957595286</v>
       </c>
       <c r="I21" s="14">
-        <v>530732.3375194167</v>
+        <v>530732.31971904507</v>
       </c>
       <c r="J21" s="14">
-        <v>478554.50941341947</v>
+        <v>478554.4957595286</v>
       </c>
       <c r="K21" s="14">
-        <v>-52177.828105997236</v>
+        <v>-52177.823959516478</v>
       </c>
       <c r="L21" s="13">
         <v>0</v>
@@ -3508,28 +3508,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D22" s="13">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E22" s="13">
-        <v>24134.359941558272</v>
+        <v>24134.359977963992</v>
       </c>
       <c r="F22" s="14">
-        <v>30588.543364516147</v>
+        <v>30588.543410657745</v>
       </c>
       <c r="G22" s="14">
-        <v>692489.67205250997</v>
+        <v>692489.65321360179</v>
       </c>
       <c r="H22" s="14">
-        <v>546374.33374857553</v>
+        <v>546374.31888467749</v>
       </c>
       <c r="I22" s="14">
-        <v>554866.69746097503</v>
+        <v>554866.67969700904</v>
       </c>
       <c r="J22" s="14">
-        <v>546374.33374857553</v>
+        <v>546374.31888467749</v>
       </c>
       <c r="K22" s="14">
-        <v>-8492.3637123994995</v>
+        <v>-8492.3608123315498</v>
       </c>
       <c r="L22" s="13">
         <v>0</v>
@@ -3546,31 +3546,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="12">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="13">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E23" s="13">
-        <v>26656.282878027137</v>
+        <v>26656.282903997755</v>
       </c>
       <c r="F23" s="14">
-        <v>34936.150036978543</v>
+        <v>34936.150071016047</v>
       </c>
       <c r="G23" s="14">
-        <v>727425.8220894885</v>
+        <v>727425.80328461784</v>
       </c>
       <c r="H23" s="14">
-        <v>555025.91057900758</v>
+        <v>555025.89623089111</v>
       </c>
       <c r="I23" s="14">
-        <v>581522.98033900221</v>
+        <v>581522.96260100685</v>
       </c>
       <c r="J23" s="14">
-        <v>555025.91057900758</v>
+        <v>555025.89623089111</v>
       </c>
       <c r="K23" s="14">
-        <v>-26497.069759994629</v>
+        <v>-26497.066370115732</v>
       </c>
       <c r="L23" s="13">
         <v>0</v>
@@ -3587,31 +3587,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="12">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="13">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E24" s="13">
-        <v>24620.694956416326</v>
+        <v>24620.694999812695</v>
       </c>
       <c r="F24" s="14">
-        <v>31933.455347920826</v>
+        <v>31933.455404206645</v>
       </c>
       <c r="G24" s="14">
-        <v>759359.27743740939</v>
+        <v>759359.25868882448</v>
       </c>
       <c r="H24" s="14">
-        <v>585466.02390550438</v>
+        <v>585466.00945034495</v>
       </c>
       <c r="I24" s="14">
-        <v>606143.67529541859</v>
+        <v>606143.6576008196</v>
       </c>
       <c r="J24" s="14">
-        <v>585466.02390550438</v>
+        <v>585466.00945034495</v>
       </c>
       <c r="K24" s="14">
-        <v>-20677.651389914216</v>
+        <v>-20677.648150474648</v>
       </c>
       <c r="L24" s="13">
         <v>0</v>
@@ -3628,31 +3628,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="12">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="13">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E25" s="13">
-        <v>25968.8096013986</v>
+        <v>25968.809618826315</v>
       </c>
       <c r="F25" s="14">
-        <v>34578.974762435661</v>
+        <v>34578.974785641672</v>
       </c>
       <c r="G25" s="14">
-        <v>793938.25219984504</v>
+        <v>793938.23347446613</v>
       </c>
       <c r="H25" s="14">
-        <v>596247.6171804436</v>
+        <v>596247.60311768425</v>
       </c>
       <c r="I25" s="14">
-        <v>632112.48489681724</v>
+        <v>632112.46721964586</v>
       </c>
       <c r="J25" s="14">
-        <v>596247.6171804436</v>
+        <v>596247.60311768425</v>
       </c>
       <c r="K25" s="14">
-        <v>-35864.867716373643</v>
+        <v>-35864.864101961604</v>
       </c>
       <c r="L25" s="13">
         <v>0</v>
@@ -3669,31 +3669,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="12">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="13">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E26" s="13">
-        <v>33592.100839658677</v>
+        <v>33592.100855854354</v>
       </c>
       <c r="F26" s="14">
-        <v>46655.693756706351</v>
+        <v>46655.693779200345</v>
       </c>
       <c r="G26" s="14">
-        <v>840593.94595655135</v>
+        <v>840593.92725366645</v>
       </c>
       <c r="H26" s="14">
-        <v>605227.66513830272</v>
+        <v>605227.65167222498</v>
       </c>
       <c r="I26" s="14">
-        <v>665704.58573647588</v>
+        <v>665704.5680755002</v>
       </c>
       <c r="J26" s="14">
-        <v>605227.66513830272</v>
+        <v>605227.65167222498</v>
       </c>
       <c r="K26" s="14">
-        <v>-60476.920598173165</v>
+        <v>-60476.916403275216</v>
       </c>
       <c r="L26" s="13">
         <v>0</v>
@@ -3710,31 +3710,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="12">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="13">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E27" s="13">
-        <v>28994.918845165728</v>
+        <v>28994.918863278643</v>
       </c>
       <c r="F27" s="14">
-        <v>38403.866262635274</v>
+        <v>38403.866286625889</v>
       </c>
       <c r="G27" s="14">
-        <v>878997.81221918669</v>
+        <v>878997.7935402923</v>
       </c>
       <c r="H27" s="14">
-        <v>663643.34403409774</v>
+        <v>663643.32993153261</v>
       </c>
       <c r="I27" s="14">
-        <v>694699.50458164164</v>
+        <v>694699.48693877889</v>
       </c>
       <c r="J27" s="14">
-        <v>663643.34403409774</v>
+        <v>663643.32993153261</v>
       </c>
       <c r="K27" s="14">
-        <v>-31056.160547543899</v>
+        <v>-31056.157007246278</v>
       </c>
       <c r="L27" s="13">
         <v>0</v>
@@ -3751,31 +3751,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="12">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="13">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E28" s="13">
-        <v>27069.435992111685</v>
+        <v>27069.436031023346</v>
       </c>
       <c r="F28" s="14">
-        <v>35570.876201449297</v>
+        <v>35570.876252581569</v>
       </c>
       <c r="G28" s="14">
-        <v>914568.688420636</v>
+        <v>914568.6697928739</v>
       </c>
       <c r="H28" s="14">
-        <v>695986.75139138824</v>
+        <v>695986.73721566179</v>
       </c>
       <c r="I28" s="14">
-        <v>721768.94057375332</v>
+        <v>721768.92296980228</v>
       </c>
       <c r="J28" s="14">
-        <v>695986.75139138824</v>
+        <v>695986.73721566179</v>
       </c>
       <c r="K28" s="14">
-        <v>-25782.18918236508</v>
+        <v>-25782.18575414049</v>
       </c>
       <c r="L28" s="13">
         <v>0</v>
@@ -3792,31 +3792,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="12">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="13">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E29" s="13">
-        <v>31804.999031915606</v>
+        <v>31804.999065229906</v>
       </c>
       <c r="F29" s="14">
-        <v>44544.817404276022</v>
+        <v>44544.817450934708</v>
       </c>
       <c r="G29" s="14">
-        <v>959113.50582491199</v>
+        <v>959113.48724380857</v>
       </c>
       <c r="H29" s="14">
-        <v>684807.03035344032</v>
+        <v>684807.01708653278</v>
       </c>
       <c r="I29" s="14">
-        <v>753573.93960566889</v>
+        <v>753573.92203503218</v>
       </c>
       <c r="J29" s="14">
-        <v>684807.03035344032</v>
+        <v>684807.01708653278</v>
       </c>
       <c r="K29" s="14">
-        <v>-68766.909252228565</v>
+        <v>-68766.904948499403</v>
       </c>
       <c r="L29" s="13">
         <v>0</v>
@@ -3836,28 +3836,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="13">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E30" s="13">
-        <v>37098.531402296496</v>
+        <v>37098.531428900846</v>
       </c>
       <c r="F30" s="14">
-        <v>54158.439814850673</v>
+        <v>54158.439853689146</v>
       </c>
       <c r="G30" s="14">
-        <v>1013271.9456397627</v>
+        <v>1013271.9270974977</v>
       </c>
       <c r="H30" s="14">
-        <v>694091.28517906601</v>
+        <v>694091.27247761446</v>
       </c>
       <c r="I30" s="14">
-        <v>790672.47100796539</v>
+        <v>790672.45346393308</v>
       </c>
       <c r="J30" s="14">
-        <v>694091.28517906601</v>
+        <v>694091.27247761446</v>
       </c>
       <c r="K30" s="14">
-        <v>-96581.185828899383</v>
+        <v>-96581.180986318621</v>
       </c>
       <c r="L30" s="13">
         <v>0</v>
@@ -3874,31 +3874,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="12">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="13">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E31" s="13">
-        <v>37928.380503303619</v>
+        <v>37928.380537943682</v>
       </c>
       <c r="F31" s="14">
-        <v>57207.211481968698</v>
+        <v>57207.211534216156</v>
       </c>
       <c r="G31" s="14">
-        <v>1070479.1571217314</v>
+        <v>1070479.1386317138</v>
       </c>
       <c r="H31" s="14">
-        <v>709727.66790015774</v>
+        <v>709727.65564127627</v>
       </c>
       <c r="I31" s="14">
-        <v>828600.85151126899</v>
+        <v>828600.83400187676</v>
       </c>
       <c r="J31" s="14">
-        <v>709727.66790015774</v>
+        <v>709727.65564127627</v>
       </c>
       <c r="K31" s="14">
-        <v>-118873.18361111125</v>
+        <v>-118873.17836060049</v>
       </c>
       <c r="L31" s="13">
         <v>0</v>
@@ -3915,31 +3915,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="12">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="13">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E32" s="13">
-        <v>39902.178437708179</v>
+        <v>39902.178481777861</v>
       </c>
       <c r="F32" s="14">
-        <v>61293.666720134381</v>
+        <v>61293.666787829745</v>
       </c>
       <c r="G32" s="14">
-        <v>1131772.8238418659</v>
+        <v>1131772.8054195435</v>
       </c>
       <c r="H32" s="14">
-        <v>736784.13422527886</v>
+        <v>736784.12223234656</v>
       </c>
       <c r="I32" s="14">
-        <v>868503.02994897717</v>
+        <v>868503.01248365466</v>
       </c>
       <c r="J32" s="14">
-        <v>736784.13422527886</v>
+        <v>736784.12223234656</v>
       </c>
       <c r="K32" s="14">
-        <v>-131718.89572369831</v>
+        <v>-131718.8902513081</v>
       </c>
       <c r="L32" s="13">
         <v>0</v>
@@ -3956,31 +3956,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="12">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="13">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E33" s="13">
-        <v>39443.472999107165</v>
+        <v>39443.473005789252</v>
       </c>
       <c r="F33" s="14">
-        <v>61152.673124809051</v>
+        <v>61152.67313516888</v>
       </c>
       <c r="G33" s="14">
-        <v>1192925.4969666749</v>
+        <v>1192925.4785547124</v>
       </c>
       <c r="H33" s="14">
-        <v>769436.92279025714</v>
+        <v>769436.91091454169</v>
       </c>
       <c r="I33" s="14">
-        <v>907946.50294808438</v>
+        <v>907946.48548944388</v>
       </c>
       <c r="J33" s="14">
-        <v>769436.92279025714</v>
+        <v>769436.91091454169</v>
       </c>
       <c r="K33" s="14">
-        <v>-138509.58015782724</v>
+        <v>-138509.57457490219</v>
       </c>
       <c r="L33" s="13">
         <v>0</v>
@@ -3997,31 +3997,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="12">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="13">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E34" s="13">
-        <v>47228.665828131299</v>
+        <v>47228.66583411934</v>
       </c>
       <c r="F34" s="14">
-        <v>84186.571677867352</v>
+        <v>84186.571688541211</v>
       </c>
       <c r="G34" s="14">
-        <v>1277112.0686445422</v>
+        <v>1277112.0502432536</v>
       </c>
       <c r="H34" s="14">
-        <v>716459.85711214948</v>
+        <v>716459.84678902663</v>
       </c>
       <c r="I34" s="14">
-        <v>955175.16877621564</v>
+        <v>955175.15132356319</v>
       </c>
       <c r="J34" s="14">
-        <v>716459.85711214948</v>
+        <v>716459.84678902663</v>
       </c>
       <c r="K34" s="14">
-        <v>-238715.31166406616</v>
+        <v>-238715.30453453655</v>
       </c>
       <c r="L34" s="13">
         <v>0</v>
@@ -4038,31 +4038,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="12">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="13">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E35" s="13">
-        <v>38024.498327931113</v>
+        <v>38024.498342278057</v>
       </c>
       <c r="F35" s="14">
-        <v>59599.526090703235</v>
+        <v>59599.526113190608</v>
       </c>
       <c r="G35" s="14">
-        <v>1336711.5947352455</v>
+        <v>1336711.5763564443</v>
       </c>
       <c r="H35" s="14">
-        <v>852822.01273853681</v>
+        <v>852822.00101286138</v>
       </c>
       <c r="I35" s="14">
-        <v>993199.66710414679</v>
+        <v>993199.64966584125</v>
       </c>
       <c r="J35" s="14">
-        <v>852822.01273853681</v>
+        <v>852822.00101286138</v>
       </c>
       <c r="K35" s="14">
-        <v>-140377.65436560998</v>
+        <v>-140377.64865297987</v>
       </c>
       <c r="L35" s="13">
         <v>0</v>
@@ -4079,31 +4079,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="12">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="13">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E36" s="13">
-        <v>36259.497897799316</v>
+        <v>36101.712250310709</v>
       </c>
       <c r="F36" s="14">
-        <v>56129.251308757863</v>
+        <v>55885.001090904167</v>
       </c>
       <c r="G36" s="14">
-        <v>1392840.8460440033</v>
+        <v>1392596.5774473485</v>
       </c>
       <c r="H36" s="14">
-        <v>899775.22506560583</v>
+        <v>899617.42754541116</v>
       </c>
       <c r="I36" s="14">
-        <v>1029459.1650019462</v>
+        <v>1029301.3619161519</v>
       </c>
       <c r="J36" s="14">
-        <v>899775.22506560583</v>
+        <v>899617.42754541116</v>
       </c>
       <c r="K36" s="14">
-        <v>-129683.93993634032</v>
+        <v>-129683.93437074078</v>
       </c>
       <c r="L36" s="13">
         <v>0</v>
@@ -4120,31 +4120,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="12">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="13">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E37" s="13">
-        <v>67026.078556681867</v>
+        <v>67026.078598027074</v>
       </c>
       <c r="F37" s="14">
-        <v>100942.89323456016</v>
+        <v>100942.89329682705</v>
       </c>
       <c r="G37" s="14">
-        <v>1493783.7392785635</v>
+        <v>1493539.4707441756</v>
       </c>
       <c r="H37" s="14">
-        <v>991872.36512951169</v>
+        <v>991710.17082885141</v>
       </c>
       <c r="I37" s="14">
-        <v>1096485.243558628</v>
+        <v>1096327.4405141789</v>
       </c>
       <c r="J37" s="14">
-        <v>991872.36512951169</v>
+        <v>991710.17082885141</v>
       </c>
       <c r="K37" s="14">
-        <v>-104612.87842911633</v>
+        <v>-104617.26968532754</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -1242,11 +1238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448882560"/>
-        <c:axId val="485171200"/>
+        <c:axId val="502061312"/>
+        <c:axId val="502095872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448882560"/>
+        <c:axId val="502061312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,14 +1285,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485171200"/>
+        <c:crossAx val="502095872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485171200"/>
+        <c:axId val="502095872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448882560"/>
+        <c:crossAx val="502061312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1657,8 +1653,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485198848"/>
-        <c:axId val="485197312"/>
+        <c:axId val="521344896"/>
+        <c:axId val="521343360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1918,11 +1914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485193216"/>
-        <c:axId val="485194752"/>
+        <c:axId val="521339648"/>
+        <c:axId val="521341568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485193216"/>
+        <c:axId val="521339648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,14 +1961,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485194752"/>
+        <c:crossAx val="521341568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485194752"/>
+        <c:axId val="521341568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2023,12 +2019,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485193216"/>
+        <c:crossAx val="521339648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485197312"/>
+        <c:axId val="521343360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,12 +2061,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485198848"/>
+        <c:crossAx val="521344896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485198848"/>
+        <c:axId val="521344896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485197312"/>
+        <c:crossAx val="521343360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2628,28 +2624,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -264,7 +264,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,6 +323,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,7 +477,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -581,6 +582,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +594,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -695,6 +699,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1096327.4405141789</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1159999.2125700833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,7 +744,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -842,6 +849,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,7 +861,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -956,6 +966,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>991710.17082885141</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1034472.3924308628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,7 +1011,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1103,6 +1116,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,7 +1128,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1217,6 +1233,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-104617.26968532754</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-125526.82013922057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,11 +1257,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502061312"/>
-        <c:axId val="502095872"/>
+        <c:axId val="456749824"/>
+        <c:axId val="456751744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502061312"/>
+        <c:axId val="456749824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,14 +1304,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502095872"/>
+        <c:crossAx val="456751744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502095872"/>
+        <c:axId val="456751744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1362,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502061312"/>
+        <c:crossAx val="456749824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,7 +1553,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1639,6 +1658,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>67026.078598027074</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63671.772055904468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,8 +1675,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521344896"/>
-        <c:axId val="521343360"/>
+        <c:axId val="456896512"/>
+        <c:axId val="456890624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1679,7 +1701,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1784,6 +1806,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,7 +1818,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1898,6 +1923,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,11 +1942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521339648"/>
-        <c:axId val="521341568"/>
+        <c:axId val="456885376"/>
+        <c:axId val="456888320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521339648"/>
+        <c:axId val="456885376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,14 +1989,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521341568"/>
+        <c:crossAx val="456888320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521341568"/>
+        <c:axId val="456888320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,12 +2047,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521339648"/>
+        <c:crossAx val="456885376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="521343360"/>
+        <c:axId val="456890624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,12 +2089,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521344896"/>
+        <c:crossAx val="456896512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="521344896"/>
+        <c:axId val="456896512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521343360"/>
+        <c:crossAx val="456890624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2484,7 +2512,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2657,6 +2685,16 @@
         <f>-Z3</f>
         <v>-71470.226080923632</v>
       </c>
+      <c r="AB3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>128778.87492621085</v>
+      </c>
+      <c r="AD3" s="10">
+        <f>-AC3</f>
+        <v>-128778.87492621085</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="11">
@@ -2730,9 +2768,16 @@
         <f>-Z4</f>
         <v>-401953.44834350183</v>
       </c>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
+      <c r="AB4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AD4" s="8">
+        <f>-AC4</f>
+        <v>-401953.44479283423</v>
+      </c>
       <c r="AE4" s="16"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
@@ -2806,9 +2851,16 @@
       <c r="AA5" s="8">
         <v>436532.87606210314</v>
       </c>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
+      <c r="AB5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AD5" s="8">
+        <f>-AC5</f>
+        <v>-377214.1657703988</v>
+      </c>
       <c r="AE5" s="16"/>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
@@ -2853,14 +2905,42 @@
       <c r="M6" s="8">
         <v>1</v>
       </c>
+      <c r="P6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="R6" s="7">
+        <v>907946.48548944388</v>
+      </c>
+      <c r="S6" s="7">
+        <v>769436.91091454169</v>
+      </c>
+      <c r="T6" s="7">
+        <v>-138509.57457490219</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="18">
+        <v>-0.15255257527676455</v>
+      </c>
+      <c r="W6" s="18">
+        <v>-9.2614134360843758E-2</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="19">
         <v>-6.8314848168957498E-2</v>
       </c>
-      <c r="AB6" s="8"/>
+      <c r="AB6" s="21">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="19"/>
+      <c r="AD6" s="19">
+        <v>769436.91091454169</v>
+      </c>
       <c r="AE6" s="16"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -2906,6 +2986,9 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
+      <c r="AD7" s="9">
+        <v>-9.2614134360843758E-2</v>
+      </c>
       <c r="AG7" s="9"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -4148,6 +4231,50 @@
       <c r="M37" s="8">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75">
+      <c r="A38" s="11">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="12">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="13">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="13">
+        <v>63671.772055904468</v>
+      </c>
+      <c r="F38" s="14">
+        <v>97956.575986724973</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1591496.0467309006</v>
+      </c>
+      <c r="H38" s="14">
+        <v>1034472.3924308628</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1159999.2125700833</v>
+      </c>
+      <c r="J38" s="14">
+        <v>1034472.3924308628</v>
+      </c>
+      <c r="K38" s="14">
+        <v>-125526.82013922057</v>
+      </c>
+      <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -264,7 +264,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,7 +323,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -585,6 +584,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,7 +596,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -702,6 +704,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1159999.2125700833</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1225836.7818952375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,7 +749,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -852,6 +857,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,7 +869,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -969,6 +977,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1034472.3924308628</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1078029.0193784379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,7 +1022,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1119,6 +1130,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1142,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1236,6 +1250,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-125526.82013922057</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-147807.76251679962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,11 +1274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="456749824"/>
-        <c:axId val="456751744"/>
+        <c:axId val="506448128"/>
+        <c:axId val="506449920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="456749824"/>
+        <c:axId val="506448128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,14 +1321,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456751744"/>
+        <c:crossAx val="506449920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="456751744"/>
+        <c:axId val="506449920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456749824"/>
+        <c:crossAx val="506448128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1553,7 +1570,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1661,6 +1678,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>63671.772055904468</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65837.569325154225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,8 +1695,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="456896512"/>
-        <c:axId val="456890624"/>
+        <c:axId val="516976640"/>
+        <c:axId val="508099200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1701,7 +1721,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1809,6 +1829,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,7 +1841,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1926,6 +1949,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,11 +1968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="456885376"/>
-        <c:axId val="456888320"/>
+        <c:axId val="507936768"/>
+        <c:axId val="508096896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="456885376"/>
+        <c:axId val="507936768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,14 +2015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456888320"/>
+        <c:crossAx val="508096896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="456888320"/>
+        <c:axId val="508096896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,12 +2073,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456885376"/>
+        <c:crossAx val="507936768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456890624"/>
+        <c:axId val="508099200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,12 +2115,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456896512"/>
+        <c:crossAx val="516976640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="456896512"/>
+        <c:axId val="516976640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456890624"/>
+        <c:crossAx val="508099200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4273,8 +4299,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="28"/>
+    <row r="39" spans="1:13" ht="12.75">
+      <c r="A39" s="11">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="12">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="13">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="13">
+        <v>65837.569325154225</v>
+      </c>
+      <c r="F39" s="14">
+        <v>103518.19441059174</v>
+      </c>
+      <c r="G39" s="14">
+        <v>1695014.2411414925</v>
+      </c>
+      <c r="H39" s="14">
+        <v>1078029.0193784379</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1225836.7818952375</v>
+      </c>
+      <c r="J39" s="14">
+        <v>1078029.0193784379</v>
+      </c>
+      <c r="K39" s="14">
+        <v>-147807.76251679962</v>
+      </c>
+      <c r="L39" s="13">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -587,6 +587,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,7 +599,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -707,6 +710,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1225836.7818952375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1290942.7174525696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,7 +755,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -860,6 +866,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,7 +878,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -973,13 +982,16 @@
                   <c:v>899617.42754541116</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>991710.17082885141</c:v>
+                  <c:v>991711.17082885141</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1034472.3924308628</c:v>
+                  <c:v>1034473.3924308628</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1078029.0193784379</c:v>
+                  <c:v>1078030.0193784379</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1138049.9776802531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1034,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1133,6 +1145,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1157,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1246,13 +1261,16 @@
                   <c:v>-129683.93437074078</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-104617.26968532754</c:v>
+                  <c:v>-104616.26968532754</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-125526.82013922057</c:v>
+                  <c:v>-125525.82013922057</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-147807.76251679962</c:v>
+                  <c:v>-147806.76251679962</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-152892.73977231653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,11 +1292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506448128"/>
-        <c:axId val="506449920"/>
+        <c:axId val="604134016"/>
+        <c:axId val="427549056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506448128"/>
+        <c:axId val="604134016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,14 +1339,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506449920"/>
+        <c:crossAx val="427549056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506449920"/>
+        <c:axId val="427549056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1397,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506448128"/>
+        <c:crossAx val="604134016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1535,7 +1553,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1570,7 +1587,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1681,6 +1698,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>65837.569325154225</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65105.935557332014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,8 +1715,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="516976640"/>
-        <c:axId val="508099200"/>
+        <c:axId val="427682816"/>
+        <c:axId val="427681280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1721,7 +1741,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1832,6 +1852,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,7 +1864,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1952,6 +1975,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,11 +1994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507936768"/>
-        <c:axId val="508096896"/>
+        <c:axId val="427661568"/>
+        <c:axId val="427679744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507936768"/>
+        <c:axId val="427661568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,14 +2041,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508096896"/>
+        <c:crossAx val="427679744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508096896"/>
+        <c:axId val="427679744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,12 +2099,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507936768"/>
+        <c:crossAx val="427661568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="508099200"/>
+        <c:axId val="427681280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,12 +2141,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516976640"/>
+        <c:crossAx val="427682816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="516976640"/>
+        <c:axId val="427682816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508099200"/>
+        <c:crossAx val="427681280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2538,10 +2564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4246,10 +4272,10 @@
         <v>1096327.4405141789</v>
       </c>
       <c r="J37" s="14">
-        <v>991710.17082885141</v>
+        <v>991711.17082885141</v>
       </c>
       <c r="K37" s="14">
-        <v>-104617.26968532754</v>
+        <v>-104616.26968532754</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>
@@ -4287,10 +4313,10 @@
         <v>1159999.2125700833</v>
       </c>
       <c r="J38" s="14">
-        <v>1034472.3924308628</v>
+        <v>1034473.3924308628</v>
       </c>
       <c r="K38" s="14">
-        <v>-125526.82013922057</v>
+        <v>-125525.82013922057</v>
       </c>
       <c r="L38" s="13">
         <v>0</v>
@@ -4328,16 +4354,57 @@
         <v>1225836.7818952375</v>
       </c>
       <c r="J39" s="14">
-        <v>1078029.0193784379</v>
+        <v>1078030.0193784379</v>
       </c>
       <c r="K39" s="14">
-        <v>-147807.76251679962</v>
+        <v>-147806.76251679962</v>
       </c>
       <c r="L39" s="13">
         <v>0</v>
       </c>
       <c r="M39" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="12.75">
+      <c r="A40" s="11">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="12">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="13">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="13">
+        <v>65105.935557332014</v>
+      </c>
+      <c r="F40" s="14">
+        <v>102852.97612927631</v>
+      </c>
+      <c r="G40" s="14">
+        <v>1797867.2172707687</v>
+      </c>
+      <c r="H40" s="14">
+        <v>1138049.9776802531</v>
+      </c>
+      <c r="I40" s="14">
+        <v>1290942.7174525696</v>
+      </c>
+      <c r="J40" s="14">
+        <v>1138049.9776802531</v>
+      </c>
+      <c r="K40" s="14">
+        <v>-152892.73977231653</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -590,6 +590,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,7 +602,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -712,7 +715,10 @@
                   <c:v>1225836.7818952375</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1290942.7174525696</c:v>
+                  <c:v>1258389.7496739035</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1278770.6273266042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,7 +761,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -869,6 +875,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,7 +887,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -982,16 +991,19 @@
                   <c:v>899617.42754541116</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>991711.17082885141</c:v>
+                  <c:v>991710.17082885141</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1034473.3924308628</c:v>
+                  <c:v>1034472.3924308628</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1078030.0193784379</c:v>
+                  <c:v>1078029.0193784379</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1138049.9776802531</c:v>
+                  <c:v>1105497.0099015872</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1085709.7474514754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,7 +1046,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1148,6 +1160,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,7 +1172,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1261,16 +1276,19 @@
                   <c:v>-129683.93437074078</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-104616.26968532754</c:v>
+                  <c:v>-104617.26968532754</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-125525.82013922057</c:v>
+                  <c:v>-125526.82013922057</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-147806.76251679962</c:v>
+                  <c:v>-147807.76251679962</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-152892.73977231653</c:v>
+                  <c:v>-152892.7397723163</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-193060.87987512886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,11 +1310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="604134016"/>
-        <c:axId val="427549056"/>
+        <c:axId val="325430656"/>
+        <c:axId val="325440640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="604134016"/>
+        <c:axId val="325430656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,14 +1357,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427549056"/>
+        <c:crossAx val="325440640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="427549056"/>
+        <c:axId val="325440640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1415,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604134016"/>
+        <c:crossAx val="325430656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1553,6 +1571,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1587,7 +1606,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1700,7 +1719,10 @@
                   <c:v>65837.569325154225</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>65105.935557332014</c:v>
+                  <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,8 +1737,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="427682816"/>
-        <c:axId val="427681280"/>
+        <c:axId val="325488000"/>
+        <c:axId val="325486464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1741,7 +1763,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1855,6 +1877,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,7 +1889,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1978,6 +2003,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,11 +2022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="427661568"/>
-        <c:axId val="427679744"/>
+        <c:axId val="325465216"/>
+        <c:axId val="325484928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="427661568"/>
+        <c:axId val="325465216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,14 +2069,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427679744"/>
+        <c:crossAx val="325484928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="427679744"/>
+        <c:axId val="325484928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,12 +2127,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427661568"/>
+        <c:crossAx val="325465216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="427681280"/>
+        <c:axId val="325486464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2141,12 +2169,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427682816"/>
+        <c:crossAx val="325488000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="427682816"/>
+        <c:axId val="325488000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +2183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="427681280"/>
+        <c:crossAx val="325486464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2564,10 +2592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4272,10 +4300,10 @@
         <v>1096327.4405141789</v>
       </c>
       <c r="J37" s="14">
-        <v>991711.17082885141</v>
+        <v>991710.17082885141</v>
       </c>
       <c r="K37" s="14">
-        <v>-104616.26968532754</v>
+        <v>-104617.26968532754</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>
@@ -4313,10 +4341,10 @@
         <v>1159999.2125700833</v>
       </c>
       <c r="J38" s="14">
-        <v>1034473.3924308628</v>
+        <v>1034472.3924308628</v>
       </c>
       <c r="K38" s="14">
-        <v>-125525.82013922057</v>
+        <v>-125526.82013922057</v>
       </c>
       <c r="L38" s="13">
         <v>0</v>
@@ -4354,10 +4382,10 @@
         <v>1225836.7818952375</v>
       </c>
       <c r="J39" s="14">
-        <v>1078030.0193784379</v>
+        <v>1078029.0193784379</v>
       </c>
       <c r="K39" s="14">
-        <v>-147806.76251679962</v>
+        <v>-147807.76251679962</v>
       </c>
       <c r="L39" s="13">
         <v>0</v>
@@ -4380,30 +4408,71 @@
         <v>25.951256745485065</v>
       </c>
       <c r="E40" s="13">
-        <v>65105.935557332014</v>
+        <v>32552.967778666007</v>
       </c>
       <c r="F40" s="14">
-        <v>102852.97612927631</v>
+        <v>51426.488064638157</v>
       </c>
       <c r="G40" s="14">
-        <v>1797867.2172707687</v>
+        <v>1746440.7292061306</v>
       </c>
       <c r="H40" s="14">
-        <v>1138049.9776802531</v>
+        <v>1105497.0099015872</v>
       </c>
       <c r="I40" s="14">
-        <v>1290942.7174525696</v>
+        <v>1258389.7496739035</v>
       </c>
       <c r="J40" s="14">
-        <v>1138049.9776802531</v>
+        <v>1105497.0099015872</v>
       </c>
       <c r="K40" s="14">
-        <v>-152892.73977231653</v>
+        <v>-152892.7397723163</v>
       </c>
       <c r="L40" s="13">
         <v>0</v>
       </c>
       <c r="M40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12.75">
+      <c r="A41" s="11">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="12">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="13">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="13">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F41" s="14">
+        <v>33411.274056965078</v>
+      </c>
+      <c r="G41" s="14">
+        <v>1779852.0032630956</v>
+      </c>
+      <c r="H41" s="14">
+        <v>1085709.7474514754</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1278770.6273266042</v>
+      </c>
+      <c r="J41" s="14">
+        <v>1085709.7474514754</v>
+      </c>
+      <c r="K41" s="14">
+        <v>-193060.87987512886</v>
+      </c>
+      <c r="L41" s="13">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -593,6 +593,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,7 +605,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -719,6 +722,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1278770.6273266042</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1280223.7633247457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,7 +767,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -878,6 +884,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,7 +896,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1004,6 +1013,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1085709.7474514754</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1366599.6572976182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,7 +1058,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1163,6 +1175,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,7 +1187,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1289,6 +1304,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-193060.87987512886</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>86375.893972872524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,11 +1328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="325430656"/>
-        <c:axId val="325440640"/>
+        <c:axId val="393629056"/>
+        <c:axId val="393635328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="325430656"/>
+        <c:axId val="393629056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,14 +1375,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325440640"/>
+        <c:crossAx val="393635328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="325440640"/>
+        <c:axId val="393635328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1433,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325430656"/>
+        <c:crossAx val="393629056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1606,7 +1624,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1723,6 +1741,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1737,8 +1758,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="325488000"/>
-        <c:axId val="325486464"/>
+        <c:axId val="436547584"/>
+        <c:axId val="393737728"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1763,7 +1784,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1880,6 +1901,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,7 +1913,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2006,6 +2030,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,11 +2049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="325465216"/>
-        <c:axId val="325484928"/>
+        <c:axId val="393720960"/>
+        <c:axId val="393736192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="325465216"/>
+        <c:axId val="393720960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,14 +2096,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325484928"/>
+        <c:crossAx val="393736192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="325484928"/>
+        <c:axId val="393736192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,12 +2154,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325465216"/>
+        <c:crossAx val="393720960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="325486464"/>
+        <c:axId val="393737728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,12 +2196,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325488000"/>
+        <c:crossAx val="436547584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="325488000"/>
+        <c:axId val="436547584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,7 +2210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="325486464"/>
+        <c:crossAx val="393737728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2592,7 +2619,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4476,6 +4503,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:13" ht="12.75">
+      <c r="A42" s="11">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="12">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="12">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="13">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F42" s="14">
+        <v>1894.5710053481021</v>
+      </c>
+      <c r="G42" s="14">
+        <v>1781746.5742684437</v>
+      </c>
+      <c r="H42" s="14">
+        <v>1366599.6572976182</v>
+      </c>
+      <c r="I42" s="14">
+        <v>1280223.7633247457</v>
+      </c>
+      <c r="J42" s="14">
+        <v>1366599.6572976182</v>
+      </c>
+      <c r="K42" s="14">
+        <v>86375.893972872524</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -724,7 +728,7 @@
                   <c:v>1278770.6273266042</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1280223.7633247457</c:v>
+                  <c:v>1281676.8993228872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,7 +1019,7 @@
                   <c:v>1085709.7474514754</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1366599.6572976182</c:v>
+                  <c:v>1368052.7932957597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,11 +1332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393629056"/>
-        <c:axId val="393635328"/>
+        <c:axId val="49003136"/>
+        <c:axId val="71427968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393629056"/>
+        <c:axId val="49003136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,14 +1379,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393635328"/>
+        <c:crossAx val="71427968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="393635328"/>
+        <c:axId val="71427968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1437,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393629056"/>
+        <c:crossAx val="49003136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1743,7 +1747,7 @@
                   <c:v>20380.877652700809</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>2906.2719962829406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,8 +1762,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="436547584"/>
-        <c:axId val="393737728"/>
+        <c:axId val="406299008"/>
+        <c:axId val="406276352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2049,11 +2053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393720960"/>
-        <c:axId val="393736192"/>
+        <c:axId val="406272256"/>
+        <c:axId val="406274048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393720960"/>
+        <c:axId val="406272256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,14 +2100,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393736192"/>
+        <c:crossAx val="406274048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="393736192"/>
+        <c:axId val="406274048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,12 +2158,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393720960"/>
+        <c:crossAx val="406272256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393737728"/>
+        <c:axId val="406276352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,12 +2200,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436547584"/>
+        <c:crossAx val="406299008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="436547584"/>
+        <c:axId val="406299008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,7 +2214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393737728"/>
+        <c:crossAx val="406276352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2622,7 +2626,7 @@
   <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2759,28 +2763,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4517,22 +4521,22 @@
         <v>25.607882301175056</v>
       </c>
       <c r="E42" s="13">
-        <v>1453.1359981414703</v>
+        <v>2906.2719962829406</v>
       </c>
       <c r="F42" s="14">
-        <v>1894.5710053481021</v>
+        <v>3789.1420106962041</v>
       </c>
       <c r="G42" s="14">
-        <v>1781746.5742684437</v>
+        <v>1783641.1452737919</v>
       </c>
       <c r="H42" s="14">
-        <v>1366599.6572976182</v>
+        <v>1368052.7932957597</v>
       </c>
       <c r="I42" s="14">
-        <v>1280223.7633247457</v>
+        <v>1281676.8993228872</v>
       </c>
       <c r="J42" s="14">
-        <v>1366599.6572976182</v>
+        <v>1368052.7932957597</v>
       </c>
       <c r="K42" s="14">
         <v>86375.893972872524</v>
@@ -4541,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -480,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -600,6 +596,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -609,7 +608,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -729,6 +728,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1281676.8993228872</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1286897.4102956851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,7 +773,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -891,6 +893,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,7 +905,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1020,6 +1025,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1368052.7932957597</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1391109.698711168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1062,7 +1070,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1182,6 +1190,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,7 +1202,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1311,6 +1322,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>86375.893972872524</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>104212.28841548297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,11 +1346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49003136"/>
-        <c:axId val="71427968"/>
+        <c:axId val="471033344"/>
+        <c:axId val="471034880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="49003136"/>
+        <c:axId val="471033344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,14 +1393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71427968"/>
+        <c:crossAx val="471034880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="71427968"/>
+        <c:axId val="471034880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1451,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49003136"/>
+        <c:crossAx val="471033344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1628,7 +1642,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1748,6 +1762,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2906.2719962829406</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5220.5109727978688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,8 +1779,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="406299008"/>
-        <c:axId val="406276352"/>
+        <c:axId val="485904384"/>
+        <c:axId val="485901056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1788,7 +1805,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1908,6 +1925,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,7 +1937,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2037,6 +2057,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,11 +2076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="406272256"/>
-        <c:axId val="406274048"/>
+        <c:axId val="476462080"/>
+        <c:axId val="478279168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="406272256"/>
+        <c:axId val="476462080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,14 +2123,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406274048"/>
+        <c:crossAx val="478279168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="406274048"/>
+        <c:axId val="478279168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,12 +2181,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406272256"/>
+        <c:crossAx val="476462080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406276352"/>
+        <c:axId val="485901056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,12 +2223,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406299008"/>
+        <c:crossAx val="485904384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="406299008"/>
+        <c:axId val="485904384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406276352"/>
+        <c:crossAx val="485901056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2623,10 +2646,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2763,28 +2786,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4545,6 +4568,47 @@
         <v>0</v>
       </c>
       <c r="M42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="12.75">
+      <c r="A43" s="11">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="12">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="13">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="13">
+        <v>5220.5109727978688</v>
+      </c>
+      <c r="F43" s="14">
+        <v>6718.8042542066705</v>
+      </c>
+      <c r="G43" s="14">
+        <v>1790359.9495279985</v>
+      </c>
+      <c r="H43" s="14">
+        <v>1391109.698711168</v>
+      </c>
+      <c r="I43" s="14">
+        <v>1286897.4102956851</v>
+      </c>
+      <c r="J43" s="14">
+        <v>1391109.698711168</v>
+      </c>
+      <c r="K43" s="14">
+        <v>104212.28841548297</v>
+      </c>
+      <c r="L43" s="13">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -599,6 +599,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,7 +611,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -731,6 +734,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1286897.4102956851</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1293796.6380142104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,7 +779,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -896,6 +902,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +914,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1028,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1391109.698711168</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1405170.3807408777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,7 +1082,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1193,6 +1205,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,7 +1217,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1325,6 +1340,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>104212.28841548297</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>111373.74272666732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,11 +1364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471033344"/>
-        <c:axId val="471034880"/>
+        <c:axId val="479934336"/>
+        <c:axId val="479935872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471033344"/>
+        <c:axId val="479934336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,14 +1411,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471034880"/>
+        <c:crossAx val="479935872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471034880"/>
+        <c:axId val="479935872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471033344"/>
+        <c:crossAx val="479934336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1642,7 +1660,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1765,6 +1783,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>5220.5109727978688</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6899.2277185253106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1779,8 +1800,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485904384"/>
-        <c:axId val="485901056"/>
+        <c:axId val="493652224"/>
+        <c:axId val="493621248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1805,7 +1826,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1928,6 +1949,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,7 +1961,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2060,6 +2084,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,11 +2103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476462080"/>
-        <c:axId val="478279168"/>
+        <c:axId val="491563264"/>
+        <c:axId val="493251968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476462080"/>
+        <c:axId val="491563264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,14 +2150,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478279168"/>
+        <c:crossAx val="493251968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478279168"/>
+        <c:axId val="493251968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,12 +2208,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476462080"/>
+        <c:crossAx val="491563264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485901056"/>
+        <c:axId val="493621248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,12 +2250,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485904384"/>
+        <c:crossAx val="493652224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485904384"/>
+        <c:axId val="493652224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485901056"/>
+        <c:crossAx val="493621248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2646,7 +2673,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4612,6 +4639,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:13" ht="12.75">
+      <c r="A44" s="11">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="12">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="13">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="13">
+        <v>6899.2277185253106</v>
+      </c>
+      <c r="F44" s="14">
+        <v>8833.8381030189812</v>
+      </c>
+      <c r="G44" s="14">
+        <v>1799193.7876310174</v>
+      </c>
+      <c r="H44" s="14">
+        <v>1405170.3807408777</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1293796.6380142104</v>
+      </c>
+      <c r="J44" s="14">
+        <v>1405170.3807408777</v>
+      </c>
+      <c r="K44" s="14">
+        <v>111373.74272666732</v>
+      </c>
+      <c r="L44" s="13">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -264,7 +268,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,6 +327,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,7 +481,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -602,6 +607,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,7 +619,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -727,16 +735,19 @@
                   <c:v>1258389.7496739035</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1278770.6273266042</c:v>
+                  <c:v>1278770.6273277001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1281676.8993228872</c:v>
+                  <c:v>1281676.8993261259</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1286897.4102956851</c:v>
+                  <c:v>1286897.4102989237</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1293796.6380142104</c:v>
+                  <c:v>1293796.6380174491</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1299953.5528675481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +790,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -905,6 +916,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,7 +928,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1030,16 +1044,19 @@
                   <c:v>1105497.0099015872</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1085709.7474514754</c:v>
+                  <c:v>1085709.7474525713</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1368052.7932957597</c:v>
+                  <c:v>1368052.7932992803</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1391109.698711168</c:v>
+                  <c:v>1391109.6987147345</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1405170.3807408777</c:v>
+                  <c:v>1405170.3807444626</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1425720.7678247031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,7 +1099,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1208,6 +1225,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,7 +1237,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1336,13 +1356,16 @@
                   <c:v>-193060.87987512886</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>86375.893972872524</c:v>
+                  <c:v>86375.893973154482</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>104212.28841548297</c:v>
+                  <c:v>104212.28841581079</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>111373.74272666732</c:v>
+                  <c:v>111373.74272701354</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>125767.21495715505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,11 +1387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479934336"/>
-        <c:axId val="479935872"/>
+        <c:axId val="160051200"/>
+        <c:axId val="160053504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479934336"/>
+        <c:axId val="160051200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,14 +1434,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479935872"/>
+        <c:crossAx val="160053504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479935872"/>
+        <c:axId val="160053504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1492,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479934336"/>
+        <c:crossAx val="160051200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1660,7 +1683,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1776,16 +1799,19 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2906.2719962829406</c:v>
+                  <c:v>2906.2719984256446</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>5220.5109727978688</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>6899.2277185253106</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6156.9148500989468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,8 +1826,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493652224"/>
-        <c:axId val="493621248"/>
+        <c:axId val="384708992"/>
+        <c:axId val="384706432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1826,7 +1852,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1952,6 +1978,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,7 +1990,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2087,6 +2116,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,11 +2135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491563264"/>
-        <c:axId val="493251968"/>
+        <c:axId val="181099136"/>
+        <c:axId val="384704512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491563264"/>
+        <c:axId val="181099136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,14 +2182,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493251968"/>
+        <c:crossAx val="384704512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493251968"/>
+        <c:axId val="384704512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,12 +2240,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491563264"/>
+        <c:crossAx val="181099136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493621248"/>
+        <c:axId val="384706432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,12 +2282,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493652224"/>
+        <c:crossAx val="384708992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493652224"/>
+        <c:axId val="384708992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,7 +2296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493621248"/>
+        <c:crossAx val="384706432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2673,7 +2705,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2813,28 +2845,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -2854,6 +2886,16 @@
       </c>
       <c r="AD3" s="10">
         <f>-AC3</f>
+        <v>-128778.87492621085</v>
+      </c>
+      <c r="AE3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>128778.87492621085</v>
+      </c>
+      <c r="AG3" s="10">
+        <f>-AF3</f>
         <v>-128778.87492621085</v>
       </c>
     </row>
@@ -2939,9 +2981,16 @@
         <f>-AC4</f>
         <v>-401953.44479283423</v>
       </c>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
+      <c r="AE4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AG4" s="8">
+        <f>-AF4</f>
+        <v>-401953.44479283423</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="11">
@@ -3022,9 +3071,16 @@
         <f>-AC5</f>
         <v>-377214.1657703988</v>
       </c>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
+      <c r="AE5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AG5" s="8">
+        <f>-AF5</f>
+        <v>-377214.1657703988</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="11">
@@ -3102,7 +3158,16 @@
       <c r="AD6" s="19">
         <v>769436.91091454169</v>
       </c>
-      <c r="AE6" s="16"/>
+      <c r="AE6" s="21">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>392007.0673781042</v>
+      </c>
+      <c r="AG6" s="10">
+        <f>-AF6</f>
+        <v>-392007.0673781042</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="11">
@@ -3143,6 +3208,30 @@
       </c>
       <c r="M7" s="8">
         <v>1</v>
+      </c>
+      <c r="P7" s="21">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>392007.0673781042</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1299953.5528675481</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1425720.7678247031</v>
+      </c>
+      <c r="T7" s="7">
+        <v>125767.21495715505</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18">
+        <v>9.6747468153555977E-2</v>
+      </c>
+      <c r="W7" s="18">
+        <v>4.2362106918812037E-2</v>
       </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -3150,7 +3239,12 @@
       <c r="AD7" s="9">
         <v>-9.2614134360843758E-2</v>
       </c>
-      <c r="AG7" s="9"/>
+      <c r="AE7" s="21">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>1425720.7678247031</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="11">
@@ -3191,6 +3285,9 @@
       </c>
       <c r="M8" s="8">
         <v>1</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>4.2362106918812037E-2</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
@@ -4527,25 +4624,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="13">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="13">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F41" s="14">
-        <v>33411.274056965078</v>
+        <v>33411.274058761628</v>
       </c>
       <c r="G41" s="14">
-        <v>1779852.0032630956</v>
+        <v>1779852.0032648921</v>
       </c>
       <c r="H41" s="14">
-        <v>1085709.7474514754</v>
+        <v>1085709.7474525713</v>
       </c>
       <c r="I41" s="14">
-        <v>1278770.6273266042</v>
+        <v>1278770.6273277001</v>
       </c>
       <c r="J41" s="14">
-        <v>1085709.7474514754</v>
+        <v>1085709.7474525713</v>
       </c>
       <c r="K41" s="14">
         <v>-193060.87987512886</v>
@@ -4568,28 +4665,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="13">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="13">
-        <v>2906.2719962829406</v>
+        <v>2906.2719984256446</v>
       </c>
       <c r="F42" s="14">
-        <v>3789.1420106962041</v>
+        <v>3789.1420134898208</v>
       </c>
       <c r="G42" s="14">
-        <v>1783641.1452737919</v>
+        <v>1783641.1452783819</v>
       </c>
       <c r="H42" s="14">
-        <v>1368052.7932957597</v>
+        <v>1368052.7932992803</v>
       </c>
       <c r="I42" s="14">
-        <v>1281676.8993228872</v>
+        <v>1281676.8993261259</v>
       </c>
       <c r="J42" s="14">
-        <v>1368052.7932957597</v>
+        <v>1368052.7932992803</v>
       </c>
       <c r="K42" s="14">
-        <v>86375.893972872524</v>
+        <v>86375.893973154482</v>
       </c>
       <c r="L42" s="13">
         <v>0</v>
@@ -4618,19 +4715,19 @@
         <v>6718.8042542066705</v>
       </c>
       <c r="G43" s="14">
-        <v>1790359.9495279985</v>
+        <v>1790359.9495325885</v>
       </c>
       <c r="H43" s="14">
-        <v>1391109.698711168</v>
+        <v>1391109.6987147345</v>
       </c>
       <c r="I43" s="14">
-        <v>1286897.4102956851</v>
+        <v>1286897.4102989237</v>
       </c>
       <c r="J43" s="14">
-        <v>1391109.698711168</v>
+        <v>1391109.6987147345</v>
       </c>
       <c r="K43" s="14">
-        <v>104212.28841548297</v>
+        <v>104212.28841581079</v>
       </c>
       <c r="L43" s="13">
         <v>0</v>
@@ -4659,19 +4756,19 @@
         <v>8833.8381030189812</v>
       </c>
       <c r="G44" s="14">
-        <v>1799193.7876310174</v>
+        <v>1799193.7876356074</v>
       </c>
       <c r="H44" s="14">
-        <v>1405170.3807408777</v>
+        <v>1405170.3807444626</v>
       </c>
       <c r="I44" s="14">
-        <v>1293796.6380142104</v>
+        <v>1293796.6380174491</v>
       </c>
       <c r="J44" s="14">
-        <v>1405170.3807408777</v>
+        <v>1405170.3807444626</v>
       </c>
       <c r="K44" s="14">
-        <v>111373.74272666732</v>
+        <v>111373.74272701354</v>
       </c>
       <c r="L44" s="13">
         <v>0</v>
@@ -4679,6 +4776,50 @@
       <c r="M44" s="8">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75">
+      <c r="A45" s="11">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="12">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="13">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="13">
+        <v>6156.9148500989468</v>
+      </c>
+      <c r="F45" s="14">
+        <v>7803.4411246012587</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1806997.2287602087</v>
+      </c>
+      <c r="H45" s="14">
+        <v>1425720.7678247031</v>
+      </c>
+      <c r="I45" s="14">
+        <v>1299953.5528675481</v>
+      </c>
+      <c r="J45" s="14">
+        <v>1425720.7678247031</v>
+      </c>
+      <c r="K45" s="14">
+        <v>125767.21495715505</v>
+      </c>
+      <c r="L45" s="13">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -268,7 +264,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,7 +323,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1387,11 +1382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160051200"/>
-        <c:axId val="160053504"/>
+        <c:axId val="93076480"/>
+        <c:axId val="93111424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160051200"/>
+        <c:axId val="93076480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,14 +1429,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160053504"/>
+        <c:crossAx val="93111424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160053504"/>
+        <c:axId val="93111424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,7 +1487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160051200"/>
+        <c:crossAx val="93076480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1826,8 +1821,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="384708992"/>
-        <c:axId val="384706432"/>
+        <c:axId val="378811136"/>
+        <c:axId val="378809344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2135,11 +2130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181099136"/>
-        <c:axId val="384704512"/>
+        <c:axId val="378805248"/>
+        <c:axId val="378807808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="181099136"/>
+        <c:axId val="378805248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,14 +2177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384704512"/>
+        <c:crossAx val="378807808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="384704512"/>
+        <c:axId val="378807808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,12 +2235,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181099136"/>
+        <c:crossAx val="378805248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384706432"/>
+        <c:axId val="378809344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,12 +2277,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384708992"/>
+        <c:crossAx val="378811136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="384708992"/>
+        <c:axId val="378811136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,7 +2291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384706432"/>
+        <c:crossAx val="378809344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2705,7 +2700,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2845,28 +2840,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4817,9 +4812,6 @@
       <c r="M45" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -476,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -605,6 +609,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,7 +621,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -743,6 +750,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1299953.5528675481</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1308961.8907399988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,7 +795,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -914,6 +924,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +936,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1052,6 +1065,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1425720.7678247031</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1420273.2062766238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,7 +1110,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1223,6 +1239,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,7 +1251,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1361,6 +1380,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>125767.21495715505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>111311.31553662498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,11 +1404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93076480"/>
-        <c:axId val="93111424"/>
+        <c:axId val="449802240"/>
+        <c:axId val="512397696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93076480"/>
+        <c:axId val="449802240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,14 +1451,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93111424"/>
+        <c:crossAx val="512397696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93111424"/>
+        <c:axId val="512397696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93076480"/>
+        <c:crossAx val="449802240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1678,7 +1700,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1807,6 +1829,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>6156.9148500989468</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9008.3378724507638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1821,8 +1846,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="378811136"/>
-        <c:axId val="378809344"/>
+        <c:axId val="527353728"/>
+        <c:axId val="515076480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1847,7 +1872,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1976,6 +2001,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,7 +2013,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2114,6 +2142,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,11 +2161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="378805248"/>
-        <c:axId val="378807808"/>
+        <c:axId val="513998208"/>
+        <c:axId val="515061248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="378805248"/>
+        <c:axId val="513998208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,14 +2208,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378807808"/>
+        <c:crossAx val="515061248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="378807808"/>
+        <c:axId val="515061248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,12 +2266,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378805248"/>
+        <c:crossAx val="513998208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378809344"/>
+        <c:axId val="515076480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,12 +2308,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378811136"/>
+        <c:crossAx val="527353728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="378811136"/>
+        <c:axId val="527353728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,7 +2322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="378809344"/>
+        <c:crossAx val="515076480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2700,7 +2731,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2840,28 +2871,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4810,6 +4841,47 @@
         <v>0</v>
       </c>
       <c r="M45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="12.75">
+      <c r="A46" s="11">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="12">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="13">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="13">
+        <v>9008.3378724507638</v>
+      </c>
+      <c r="F46" s="14">
+        <v>11534.363205442089</v>
+      </c>
+      <c r="G46" s="14">
+        <v>1818531.5919656507</v>
+      </c>
+      <c r="H46" s="14">
+        <v>1420273.2062766238</v>
+      </c>
+      <c r="I46" s="14">
+        <v>1308961.8907399988</v>
+      </c>
+      <c r="J46" s="14">
+        <v>1420273.2062766238</v>
+      </c>
+      <c r="K46" s="14">
+        <v>111311.31553662498</v>
+      </c>
+      <c r="L46" s="13">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -480,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -612,6 +608,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +620,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -752,6 +751,9 @@
                   <c:v>1299953.5528675481</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1308961.8907399988</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1308961.8907399988</c:v>
                 </c:pt>
               </c:numCache>
@@ -795,7 +797,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -927,6 +929,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +941,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1068,6 +1073,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1420273.2062766238</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1503925.6664441912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,7 +1118,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1242,6 +1250,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,7 +1262,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1383,6 +1394,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>111311.31553662498</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>194963.77570419246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,11 +1418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449802240"/>
-        <c:axId val="512397696"/>
+        <c:axId val="426148992"/>
+        <c:axId val="426150528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449802240"/>
+        <c:axId val="426148992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,14 +1465,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512397696"/>
+        <c:crossAx val="426150528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512397696"/>
+        <c:axId val="426150528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449802240"/>
+        <c:crossAx val="426148992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,7 +1714,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1832,6 +1846,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>9008.3378724507638</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4081.8818627675973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,8 +1863,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527353728"/>
-        <c:axId val="515076480"/>
+        <c:axId val="448002688"/>
+        <c:axId val="438132736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1872,7 +1889,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2004,6 +2021,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,7 +2033,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2145,6 +2165,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,11 +2184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513998208"/>
-        <c:axId val="515061248"/>
+        <c:axId val="437159040"/>
+        <c:axId val="437160576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513998208"/>
+        <c:axId val="437159040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,14 +2231,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515061248"/>
+        <c:crossAx val="437160576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515061248"/>
+        <c:axId val="437160576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,12 +2289,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513998208"/>
+        <c:crossAx val="437159040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="515076480"/>
+        <c:axId val="438132736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,12 +2331,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527353728"/>
+        <c:crossAx val="448002688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="527353728"/>
+        <c:axId val="448002688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515076480"/>
+        <c:crossAx val="438132736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2731,7 +2754,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2871,28 +2894,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4882,6 +4905,47 @@
         <v>0</v>
       </c>
       <c r="M46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="12.75">
+      <c r="A47" s="11">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="12">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="12">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="13">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="13">
+        <v>-4081.8818627675973</v>
+      </c>
+      <c r="F47" s="14">
+        <v>-4935.7699570784825</v>
+      </c>
+      <c r="G47" s="14">
+        <v>1813595.8220085723</v>
+      </c>
+      <c r="H47" s="14">
+        <v>1499843.7845814237</v>
+      </c>
+      <c r="I47" s="14">
+        <v>1308961.8907399988</v>
+      </c>
+      <c r="J47" s="14">
+        <v>1503925.6664441912</v>
+      </c>
+      <c r="K47" s="14">
+        <v>194963.77570419246</v>
+      </c>
+      <c r="L47" s="13">
+        <v>4081.8818627675973</v>
+      </c>
+      <c r="M47" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -476,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -611,6 +615,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,7 +627,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -754,6 +761,9 @@
                   <c:v>1308961.8907399988</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1308961.8907399988</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1308961.8907399988</c:v>
                 </c:pt>
               </c:numCache>
@@ -797,7 +807,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -932,6 +942,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,7 +954,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1076,6 +1089,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1503925.6664441912</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1480348.9000031229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,7 +1134,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1253,6 +1269,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,7 +1281,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1397,6 +1416,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>194963.77570419246</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>171387.00926312408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,11 +1440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426148992"/>
-        <c:axId val="426150528"/>
+        <c:axId val="455977216"/>
+        <c:axId val="455987584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426148992"/>
+        <c:axId val="455977216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,14 +1487,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426150528"/>
+        <c:crossAx val="455987584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426150528"/>
+        <c:axId val="455987584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1545,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426148992"/>
+        <c:crossAx val="455977216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1714,7 +1736,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1849,6 +1871,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-4081.8818627675973</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-417.85769766438426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,8 +1888,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="448002688"/>
-        <c:axId val="438132736"/>
+        <c:axId val="463480704"/>
+        <c:axId val="463479168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1889,7 +1914,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2024,6 +2049,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,7 +2061,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2168,6 +2196,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2184,11 +2215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="437159040"/>
-        <c:axId val="437160576"/>
+        <c:axId val="460922240"/>
+        <c:axId val="463470592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="437159040"/>
+        <c:axId val="460922240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,14 +2262,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437160576"/>
+        <c:crossAx val="463470592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="437160576"/>
+        <c:axId val="463470592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,12 +2320,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437159040"/>
+        <c:crossAx val="460922240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438132736"/>
+        <c:axId val="463479168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,12 +2362,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448002688"/>
+        <c:crossAx val="463480704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="448002688"/>
+        <c:axId val="463480704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,7 +2376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438132736"/>
+        <c:crossAx val="463479168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2754,7 +2785,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2894,28 +2925,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4946,6 +4977,47 @@
         <v>4081.8818627675973</v>
       </c>
       <c r="M47" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="12.75">
+      <c r="A48" s="11">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="12">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="13">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="13">
+        <v>-417.85769766438426</v>
+      </c>
+      <c r="F48" s="14">
+        <v>-513.33868830374342</v>
+      </c>
+      <c r="G48" s="14">
+        <v>1813082.4833202686</v>
+      </c>
+      <c r="H48" s="14">
+        <v>1475849.1604426908</v>
+      </c>
+      <c r="I48" s="14">
+        <v>1308961.8907399988</v>
+      </c>
+      <c r="J48" s="14">
+        <v>1480348.9000031229</v>
+      </c>
+      <c r="K48" s="14">
+        <v>171387.00926312408</v>
+      </c>
+      <c r="L48" s="13">
+        <v>4499.7395604319818</v>
+      </c>
+      <c r="M48" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -480,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -618,6 +614,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,7 +626,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -765,6 +764,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1308961.8907399988</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1321044.0399043607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,7 +809,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -945,6 +947,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,7 +959,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1092,6 +1097,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1480348.9000031229</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1410842.3071589943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,7 +1142,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1272,6 +1280,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,7 +1292,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1419,6 +1430,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>171387.00926312408</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>89798.267254633596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1440,11 +1454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455977216"/>
-        <c:axId val="455987584"/>
+        <c:axId val="440038144"/>
+        <c:axId val="440039680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455977216"/>
+        <c:axId val="440038144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,14 +1501,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455987584"/>
+        <c:crossAx val="440039680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455987584"/>
+        <c:axId val="440039680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455977216"/>
+        <c:crossAx val="440038144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1736,7 +1750,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1874,6 +1888,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-417.85769766438426</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12082.149164361979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1888,8 +1905,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="463480704"/>
-        <c:axId val="463479168"/>
+        <c:axId val="444481536"/>
+        <c:axId val="441997568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1914,7 +1931,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2052,6 +2069,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2061,7 +2081,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2199,6 +2219,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2215,11 +2238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460922240"/>
-        <c:axId val="463470592"/>
+        <c:axId val="440073600"/>
+        <c:axId val="441995648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460922240"/>
+        <c:axId val="440073600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,14 +2285,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463470592"/>
+        <c:crossAx val="441995648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="463470592"/>
+        <c:axId val="441995648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,12 +2343,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460922240"/>
+        <c:crossAx val="440073600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463479168"/>
+        <c:axId val="441997568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,12 +2385,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463480704"/>
+        <c:crossAx val="444481536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="463480704"/>
+        <c:axId val="444481536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="463479168"/>
+        <c:crossAx val="441997568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2785,7 +2808,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2925,28 +2948,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -5018,6 +5041,47 @@
         <v>4499.7395604319818</v>
       </c>
       <c r="M48" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="12.75">
+      <c r="A49" s="11">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="12">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="13">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="13">
+        <v>12082.149164361979</v>
+      </c>
+      <c r="F49" s="14">
+        <v>15711.507492530269</v>
+      </c>
+      <c r="G49" s="14">
+        <v>1828793.9908127987</v>
+      </c>
+      <c r="H49" s="14">
+        <v>1406342.5675985622</v>
+      </c>
+      <c r="I49" s="14">
+        <v>1321044.0399043607</v>
+      </c>
+      <c r="J49" s="14">
+        <v>1410842.3071589943</v>
+      </c>
+      <c r="K49" s="14">
+        <v>89798.267254633596</v>
+      </c>
+      <c r="L49" s="13">
+        <v>4499.7395604319818</v>
+      </c>
+      <c r="M49" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -617,6 +617,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,7 +629,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -767,6 +770,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1321044.0399043607</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1338473.5518786612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,7 +815,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -950,6 +956,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,7 +968,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1100,6 +1109,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1410842.3071589943</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1452046.1619427472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1154,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1283,6 +1295,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,7 +1307,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1433,6 +1448,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>89798.267254633596</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>113572.61006408604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1454,11 +1472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="440038144"/>
-        <c:axId val="440039680"/>
+        <c:axId val="326406528"/>
+        <c:axId val="326408064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="440038144"/>
+        <c:axId val="326406528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,14 +1519,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440039680"/>
+        <c:crossAx val="326408064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="440039680"/>
+        <c:axId val="326408064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440038144"/>
+        <c:crossAx val="326406528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1750,7 +1768,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1891,6 +1909,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>12082.149164361979</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17429.511974300451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,8 +1926,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="444481536"/>
-        <c:axId val="441997568"/>
+        <c:axId val="448674432"/>
+        <c:axId val="448664704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1931,7 +1952,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2072,6 +2093,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,7 +2105,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2222,6 +2246,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,11 +2265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="440073600"/>
-        <c:axId val="441995648"/>
+        <c:axId val="448613376"/>
+        <c:axId val="448647552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="440073600"/>
+        <c:axId val="448613376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,14 +2312,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441995648"/>
+        <c:crossAx val="448647552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441995648"/>
+        <c:axId val="448647552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,12 +2370,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440073600"/>
+        <c:crossAx val="448613376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441997568"/>
+        <c:axId val="448664704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2385,12 +2412,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444481536"/>
+        <c:crossAx val="448674432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="444481536"/>
+        <c:axId val="448674432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441997568"/>
+        <c:crossAx val="448664704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2808,7 +2835,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5085,6 +5112,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="50" spans="1:13" ht="12.75">
+      <c r="A50" s="11">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="12">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="12">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="13">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="13">
+        <v>17429.511974300451</v>
+      </c>
+      <c r="F50" s="14">
+        <v>22288.378334262474</v>
+      </c>
+      <c r="G50" s="14">
+        <v>1851082.3691470611</v>
+      </c>
+      <c r="H50" s="14">
+        <v>1447546.4223823152</v>
+      </c>
+      <c r="I50" s="14">
+        <v>1338473.5518786612</v>
+      </c>
+      <c r="J50" s="14">
+        <v>1452046.1619427472</v>
+      </c>
+      <c r="K50" s="14">
+        <v>113572.61006408604</v>
+      </c>
+      <c r="L50" s="13">
+        <v>4499.7395604319818</v>
+      </c>
+      <c r="M50" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -620,6 +620,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,7 +632,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -773,6 +776,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1338473.5518786612</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1347713.0481643691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,7 +821,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -959,6 +965,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -968,7 +977,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1112,6 +1121,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1452046.1619427472</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1516818.0763429755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,7 +1166,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1298,6 +1310,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,7 +1322,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1451,6 +1466,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>113572.61006408604</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>169105.02817860642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,11 +1490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="326406528"/>
-        <c:axId val="326408064"/>
+        <c:axId val="448466944"/>
+        <c:axId val="448468864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="326406528"/>
+        <c:axId val="448466944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,14 +1537,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326408064"/>
+        <c:crossAx val="448468864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="326408064"/>
+        <c:axId val="448468864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1595,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326406528"/>
+        <c:crossAx val="448466944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1768,7 +1786,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1912,6 +1930,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>17429.511974300451</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9239.4962857078353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,8 +1947,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="448674432"/>
-        <c:axId val="448664704"/>
+        <c:axId val="461181696"/>
+        <c:axId val="461179136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1952,7 +1973,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2096,6 +2117,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,7 +2129,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2249,6 +2273,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,11 +2292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448613376"/>
-        <c:axId val="448647552"/>
+        <c:axId val="448496384"/>
+        <c:axId val="448498688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448613376"/>
+        <c:axId val="448496384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,14 +2339,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448647552"/>
+        <c:crossAx val="448498688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448647552"/>
+        <c:axId val="448498688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,12 +2397,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448613376"/>
+        <c:crossAx val="448496384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448664704"/>
+        <c:axId val="461179136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,12 +2439,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448674432"/>
+        <c:crossAx val="461181696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="448674432"/>
+        <c:axId val="461181696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,7 +2453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448664704"/>
+        <c:crossAx val="461179136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2835,7 +2862,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5153,6 +5180,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="51" spans="1:13" ht="12.75">
+      <c r="A51" s="11">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="12">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="12">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="13">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="13">
+        <v>9239.4962857078353</v>
+      </c>
+      <c r="F51" s="14">
+        <v>11378.690334447256</v>
+      </c>
+      <c r="G51" s="14">
+        <v>1862461.0594815083</v>
+      </c>
+      <c r="H51" s="14">
+        <v>1512318.3367825435</v>
+      </c>
+      <c r="I51" s="14">
+        <v>1347713.0481643691</v>
+      </c>
+      <c r="J51" s="14">
+        <v>1516818.0763429755</v>
+      </c>
+      <c r="K51" s="14">
+        <v>169105.02817860642</v>
+      </c>
+      <c r="L51" s="13">
+        <v>4499.7395604319818</v>
+      </c>
+      <c r="M51" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -476,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -623,6 +627,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,7 +639,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -779,6 +786,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1347713.0481643691</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1349368.163556112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,7 +831,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -968,6 +978,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,7 +990,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1124,6 +1137,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1516818.0763429755</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1579934.5034994876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,7 +1182,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1313,6 +1329,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,7 +1341,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1469,6 +1488,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>169105.02817860642</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>230566.33994337567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,11 +1512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448466944"/>
-        <c:axId val="448468864"/>
+        <c:axId val="89670016"/>
+        <c:axId val="89671936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448466944"/>
+        <c:axId val="89670016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,14 +1559,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448468864"/>
+        <c:crossAx val="89671936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448468864"/>
+        <c:axId val="89671936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1617,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448466944"/>
+        <c:crossAx val="89670016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1786,7 +1808,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1933,6 +1955,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9239.4962857078353</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1655.1153917428071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,8 +1972,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="461181696"/>
-        <c:axId val="461179136"/>
+        <c:axId val="89701760"/>
+        <c:axId val="89700224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1973,7 +1998,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2120,6 +2145,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,7 +2157,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2276,6 +2304,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,11 +2323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448496384"/>
-        <c:axId val="448498688"/>
+        <c:axId val="89695744"/>
+        <c:axId val="89698304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448496384"/>
+        <c:axId val="89695744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,14 +2370,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448498688"/>
+        <c:crossAx val="89698304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448498688"/>
+        <c:axId val="89698304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,12 +2428,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448496384"/>
+        <c:crossAx val="89695744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461179136"/>
+        <c:axId val="89700224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,12 +2470,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461181696"/>
+        <c:crossAx val="89701760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="461181696"/>
+        <c:axId val="89701760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,7 +2484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461179136"/>
+        <c:crossAx val="89700224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2862,7 +2893,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3002,28 +3033,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -5218,6 +5249,47 @@
         <v>4499.7395604319818</v>
       </c>
       <c r="M51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="12.75">
+      <c r="A52" s="11">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="12">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="12">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="13">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="13">
+        <v>1655.1153917428071</v>
+      </c>
+      <c r="F52" s="14">
+        <v>1958.7163736135883</v>
+      </c>
+      <c r="G52" s="14">
+        <v>1864419.7758551219</v>
+      </c>
+      <c r="H52" s="14">
+        <v>1575434.7639390556</v>
+      </c>
+      <c r="I52" s="14">
+        <v>1349368.163556112</v>
+      </c>
+      <c r="J52" s="14">
+        <v>1579934.5034994876</v>
+      </c>
+      <c r="K52" s="14">
+        <v>230566.33994337567</v>
+      </c>
+      <c r="L52" s="13">
+        <v>4499.7395604319818</v>
+      </c>
+      <c r="M52" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -480,7 +476,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -630,6 +626,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,7 +638,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -788,6 +787,9 @@
                   <c:v>1347713.0481643691</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>1349368.163556112</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
               </c:numCache>
@@ -831,7 +833,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -981,6 +983,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +995,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1140,6 +1145,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1579934.5034994876</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1885699.188493344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,7 +1190,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1332,6 +1340,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,7 +1352,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1491,6 +1502,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>230566.33994337567</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>536331.02493723202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,11 +1526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89670016"/>
-        <c:axId val="89671936"/>
+        <c:axId val="398283904"/>
+        <c:axId val="398285440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89670016"/>
+        <c:axId val="398283904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,14 +1573,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89671936"/>
+        <c:crossAx val="398285440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89671936"/>
+        <c:axId val="398285440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1631,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89670016"/>
+        <c:crossAx val="398283904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1808,7 +1822,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1958,6 +1972,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1655.1153917428071</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-35767.924119107309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,8 +1989,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89701760"/>
-        <c:axId val="89700224"/>
+        <c:axId val="399381632"/>
+        <c:axId val="399379456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1998,7 +2015,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2148,6 +2165,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,7 +2177,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2307,6 +2327,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,11 +2346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89695744"/>
-        <c:axId val="89698304"/>
+        <c:axId val="398305536"/>
+        <c:axId val="399376768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89695744"/>
+        <c:axId val="398305536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,14 +2393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89698304"/>
+        <c:crossAx val="399376768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89698304"/>
+        <c:axId val="399376768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,12 +2451,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89695744"/>
+        <c:crossAx val="398305536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89700224"/>
+        <c:axId val="399379456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,12 +2493,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89701760"/>
+        <c:crossAx val="399381632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="89701760"/>
+        <c:axId val="399381632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89700224"/>
+        <c:crossAx val="399379456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2893,7 +2916,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3033,28 +3056,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -5290,6 +5313,47 @@
         <v>4499.7395604319818</v>
       </c>
       <c r="M52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="12.75">
+      <c r="A53" s="11">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="12">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="12">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="13">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="13">
+        <v>-35767.924119107309</v>
+      </c>
+      <c r="F53" s="14">
+        <v>-35448.886138456044</v>
+      </c>
+      <c r="G53" s="14">
+        <v>1828970.889716666</v>
+      </c>
+      <c r="H53" s="14">
+        <v>1845431.5248138048</v>
+      </c>
+      <c r="I53" s="14">
+        <v>1349368.163556112</v>
+      </c>
+      <c r="J53" s="14">
+        <v>1885699.188493344</v>
+      </c>
+      <c r="K53" s="14">
+        <v>536331.02493723202</v>
+      </c>
+      <c r="L53" s="13">
+        <v>40267.663679539291</v>
+      </c>
+      <c r="M53" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -476,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -629,6 +633,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,7 +645,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -790,6 +797,9 @@
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>1349368.163556112</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
               </c:numCache>
@@ -833,7 +843,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -986,6 +996,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,7 +1008,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1148,6 +1161,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1885699.188493344</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2030188.0998343108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1206,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1343,6 +1359,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,7 +1371,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1505,6 +1524,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>536331.02493723202</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>680819.93627819885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,11 +1548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="398283904"/>
-        <c:axId val="398285440"/>
+        <c:axId val="71131904"/>
+        <c:axId val="71134208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="398283904"/>
+        <c:axId val="71131904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,14 +1595,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398285440"/>
+        <c:crossAx val="71134208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="398285440"/>
+        <c:axId val="71134208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1653,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398283904"/>
+        <c:crossAx val="71131904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1822,7 +1844,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1975,6 +1997,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-35767.924119107309</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-57310.116966345995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,8 +2014,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="399381632"/>
-        <c:axId val="399379456"/>
+        <c:axId val="71357568"/>
+        <c:axId val="71347584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2015,7 +2040,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2168,6 +2193,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,7 +2205,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2330,6 +2358,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,11 +2377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="398305536"/>
-        <c:axId val="399376768"/>
+        <c:axId val="71343488"/>
+        <c:axId val="71346048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="398305536"/>
+        <c:axId val="71343488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2393,14 +2424,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399376768"/>
+        <c:crossAx val="71346048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="399376768"/>
+        <c:axId val="71346048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,12 +2482,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398305536"/>
+        <c:crossAx val="71343488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399379456"/>
+        <c:axId val="71347584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,12 +2524,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399381632"/>
+        <c:crossAx val="71357568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="399381632"/>
+        <c:axId val="71357568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,7 +2538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399379456"/>
+        <c:crossAx val="71347584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2916,7 +2947,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3056,28 +3087,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -5354,6 +5385,47 @@
         <v>40267.663679539291</v>
       </c>
       <c r="M53" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="12.75">
+      <c r="A54" s="11">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="12">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="12">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="13">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="13">
+        <v>-57310.116966345995</v>
+      </c>
+      <c r="F54" s="14">
+        <v>-52674.736996143642</v>
+      </c>
+      <c r="G54" s="14">
+        <v>1776296.1527205224</v>
+      </c>
+      <c r="H54" s="14">
+        <v>1932610.3191884256</v>
+      </c>
+      <c r="I54" s="14">
+        <v>1349368.163556112</v>
+      </c>
+      <c r="J54" s="14">
+        <v>2030188.0998343108</v>
+      </c>
+      <c r="K54" s="14">
+        <v>680819.93627819885</v>
+      </c>
+      <c r="L54" s="13">
+        <v>97577.780645885287</v>
+      </c>
+      <c r="M54" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -480,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -636,6 +636,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,7 +648,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -800,6 +803,9 @@
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>1349368.163556112</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
               </c:numCache>
@@ -843,7 +849,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -999,6 +1005,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1017,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1164,6 +1173,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>2030188.0998343108</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2003543.4712026208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,7 +1218,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1362,6 +1374,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1371,7 +1386,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1527,6 +1542,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>680819.93627819885</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>654175.30764650879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,11 +1566,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71131904"/>
-        <c:axId val="71134208"/>
+        <c:axId val="87292928"/>
+        <c:axId val="87296256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="71131904"/>
+        <c:axId val="87292928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,14 +1613,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71134208"/>
+        <c:crossAx val="87296256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="71134208"/>
+        <c:axId val="87296256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1671,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71131904"/>
+        <c:crossAx val="87292928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1844,7 +1862,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2000,6 +2018,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-57310.116966345995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-51110.190825250458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2014,8 +2035,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="71357568"/>
-        <c:axId val="71347584"/>
+        <c:axId val="87356928"/>
+        <c:axId val="87355392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2040,7 +2061,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2196,6 +2217,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2205,7 +2229,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2361,6 +2385,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,11 +2404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71343488"/>
-        <c:axId val="71346048"/>
+        <c:axId val="87347584"/>
+        <c:axId val="87349504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="71343488"/>
+        <c:axId val="87347584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,14 +2451,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71346048"/>
+        <c:crossAx val="87349504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="71346048"/>
+        <c:axId val="87349504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,12 +2509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71343488"/>
+        <c:crossAx val="87347584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71347584"/>
+        <c:axId val="87355392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,12 +2551,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71357568"/>
+        <c:crossAx val="87356928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="71357568"/>
+        <c:axId val="87356928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71347584"/>
+        <c:crossAx val="87355392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2947,7 +2974,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5429,6 +5456,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="55" spans="1:13" ht="12.75">
+      <c r="A55" s="11">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="12">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="12">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="13">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="13">
+        <v>-51110.190825250458</v>
+      </c>
+      <c r="F55" s="14">
+        <v>-47632.985093863441</v>
+      </c>
+      <c r="G55" s="14">
+        <v>1728663.1676266589</v>
+      </c>
+      <c r="H55" s="14">
+        <v>1854855.499731485</v>
+      </c>
+      <c r="I55" s="14">
+        <v>1349368.163556112</v>
+      </c>
+      <c r="J55" s="14">
+        <v>2003543.4712026208</v>
+      </c>
+      <c r="K55" s="14">
+        <v>654175.30764650879</v>
+      </c>
+      <c r="L55" s="13">
+        <v>148687.97147113574</v>
+      </c>
+      <c r="M55" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR)cn.xlsx
@@ -480,7 +480,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -639,6 +639,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,7 +651,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -806,6 +809,9 @@
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>1349368.163556112</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
               </c:numCache>
@@ -849,7 +855,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1008,6 +1014,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,7 +1026,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1176,6 +1185,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>2003543.4712026208</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1946497.5998595944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,7 +1230,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1377,6 +1389,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,7 +1401,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1545,6 +1560,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>654175.30764650879</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>597129.43630348239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,11 +1584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87292928"/>
-        <c:axId val="87296256"/>
+        <c:axId val="161442816"/>
+        <c:axId val="161461376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87292928"/>
+        <c:axId val="161442816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,14 +1631,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87296256"/>
+        <c:crossAx val="161461376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87296256"/>
+        <c:axId val="161461376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1689,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87292928"/>
+        <c:crossAx val="161442816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1862,7 +1880,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2021,6 +2039,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-51110.190825250458</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-31695.699802721694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,8 +2056,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87356928"/>
-        <c:axId val="87355392"/>
+        <c:axId val="161500160"/>
+        <c:axId val="161497472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2061,7 +2082,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2220,6 +2241,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,7 +2253,7 @@
               <c:f>'模型二 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2388,6 +2412,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2404,11 +2431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87347584"/>
-        <c:axId val="87349504"/>
+        <c:axId val="161488896"/>
+        <c:axId val="161491200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87347584"/>
+        <c:axId val="161488896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,14 +2478,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87349504"/>
+        <c:crossAx val="161491200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87349504"/>
+        <c:axId val="161491200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,12 +2536,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87347584"/>
+        <c:crossAx val="161488896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87355392"/>
+        <c:axId val="161497472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,12 +2578,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87356928"/>
+        <c:crossAx val="161500160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="87356928"/>
+        <c:axId val="161500160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87355392"/>
+        <c:crossAx val="161497472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2974,7 +3001,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5497,6 +5524,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="1:13" ht="12.75">
+      <c r="A56" s="11">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="12">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="13">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="13">
+        <v>-31695.699802721694</v>
+      </c>
+      <c r="F56" s="14">
+        <v>-30476.635543570264</v>
+      </c>
+      <c r="G56" s="14">
+        <v>1698186.5320830888</v>
+      </c>
+      <c r="H56" s="14">
+        <v>1766113.928585737</v>
+      </c>
+      <c r="I56" s="14">
+        <v>1349368.163556112</v>
+      </c>
+      <c r="J56" s="14">
+        <v>1946497.5998595944</v>
+      </c>
+      <c r="K56" s="14">
+        <v>597129.43630348239</v>
+      </c>
+      <c r="L56" s="13">
+        <v>180383.67127385744</v>
+      </c>
+      <c r="M56" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">
